--- a/Code/Results/Cases/Case_5_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_28/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.778033140294667</v>
+        <v>2.515147554510008</v>
       </c>
       <c r="C2">
-        <v>0.3764654688112046</v>
+        <v>0.5844502101802505</v>
       </c>
       <c r="D2">
-        <v>0.3485656055492115</v>
+        <v>0.01004428660221279</v>
       </c>
       <c r="E2">
-        <v>0.247598153116023</v>
+        <v>0.04372651017798113</v>
       </c>
       <c r="F2">
-        <v>6.527234798704285</v>
+        <v>2.432535013140367</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.09533984823308828</v>
       </c>
       <c r="K2">
-        <v>0.4758480572250861</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.818819185891968</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.6224398310635451</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.736277110955072</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.520519405821858</v>
+        <v>2.175248970279142</v>
       </c>
       <c r="C3">
-        <v>0.3209828351290867</v>
+        <v>0.5042773859045155</v>
       </c>
       <c r="D3">
-        <v>0.3096937836307347</v>
+        <v>0.009505973287614822</v>
       </c>
       <c r="E3">
-        <v>0.214010400022616</v>
+        <v>0.04179205917053608</v>
       </c>
       <c r="F3">
-        <v>5.727792625366448</v>
+        <v>2.239266383350937</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.09103173404245268</v>
       </c>
       <c r="K3">
-        <v>0.4061470727956973</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7013899696850103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.5415770070746362</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.59601184214452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.366676275569858</v>
+        <v>1.969515515620742</v>
       </c>
       <c r="C4">
-        <v>0.2879026641701898</v>
+        <v>0.4556553810004118</v>
       </c>
       <c r="D4">
-        <v>0.2863643781053042</v>
+        <v>0.009181722359530298</v>
       </c>
       <c r="E4">
-        <v>0.1939255072430868</v>
+        <v>0.04066050230628449</v>
       </c>
       <c r="F4">
-        <v>5.248353662817721</v>
+        <v>2.125593605323374</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.08855025571411801</v>
       </c>
       <c r="K4">
-        <v>0.3645257517151421</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6312315900343322</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.4927284799483758</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.513593316547627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.304898877114283</v>
+        <v>1.886318417415538</v>
       </c>
       <c r="C5">
-        <v>0.2746289140685008</v>
+        <v>0.4359687141325708</v>
       </c>
       <c r="D5">
-        <v>0.2769696013881031</v>
+        <v>0.009051009010155653</v>
       </c>
       <c r="E5">
-        <v>0.1858558685131726</v>
+        <v>0.04021266545949764</v>
       </c>
       <c r="F5">
-        <v>5.055411298001843</v>
+        <v>2.080411992785471</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.08757717162828627</v>
       </c>
       <c r="K5">
-        <v>0.3478151649891359</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6030570528833863</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.4729983676022016</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.480851802387136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.294691729332129</v>
+        <v>1.872539419935379</v>
       </c>
       <c r="C6">
-        <v>0.2724361837437641</v>
+        <v>0.4327067569871019</v>
       </c>
       <c r="D6">
-        <v>0.2754157487110689</v>
+        <v>0.009029385961941472</v>
       </c>
       <c r="E6">
-        <v>0.1845223152872251</v>
+        <v>0.04013908110195885</v>
       </c>
       <c r="F6">
-        <v>5.023508350114156</v>
+        <v>2.072975344382684</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.08741781120107106</v>
       </c>
       <c r="K6">
-        <v>0.3450542879530261</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.598401807192495</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.4697321264174192</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.475463708838845</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.365839616874382</v>
+        <v>1.968391027280006</v>
       </c>
       <c r="C7">
-        <v>0.2877228639970895</v>
+        <v>0.4553893958974982</v>
       </c>
       <c r="D7">
-        <v>0.2862372516001273</v>
+        <v>0.009179953944547847</v>
       </c>
       <c r="E7">
-        <v>0.1938162362490488</v>
+        <v>0.04065440991914748</v>
       </c>
       <c r="F7">
-        <v>5.245742270314508</v>
+        <v>2.124979795847096</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.08853698176955049</v>
       </c>
       <c r="K7">
-        <v>0.3642994287990646</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6308500264955654</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.4924617120304617</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.513148442619226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.68825417476981</v>
+        <v>2.397268970173798</v>
       </c>
       <c r="C8">
-        <v>0.3571038329903047</v>
+        <v>0.5566655162178904</v>
       </c>
       <c r="D8">
-        <v>0.3350361746079784</v>
+        <v>0.009857270284518549</v>
       </c>
       <c r="E8">
-        <v>0.235892512974857</v>
+        <v>0.04304731114656768</v>
       </c>
       <c r="F8">
-        <v>6.248936588953569</v>
+        <v>2.364786977620696</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.09381852654264122</v>
       </c>
       <c r="K8">
-        <v>0.4515423552094617</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7778794202638082</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.5943758916536339</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.687090050818384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.362703328547923</v>
+        <v>3.267102716009845</v>
       </c>
       <c r="C9">
-        <v>0.5031581866024339</v>
+        <v>0.7613172606230307</v>
       </c>
       <c r="D9">
-        <v>0.4361993436745877</v>
+        <v>0.0112440810369101</v>
       </c>
       <c r="E9">
-        <v>0.3237250462530596</v>
+        <v>0.0482283364169902</v>
       </c>
       <c r="F9">
-        <v>8.329592957293698</v>
+        <v>2.880428141891542</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1056258199266509</v>
       </c>
       <c r="K9">
-        <v>0.6343096868901625</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.085444685066612</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.8018729940719709</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.061928949795998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.897667324599865</v>
+        <v>3.932023996327985</v>
       </c>
       <c r="C10">
-        <v>0.6201793562082969</v>
+        <v>0.9173445679928705</v>
       </c>
       <c r="D10">
-        <v>0.5158246698927087</v>
+        <v>0.01231407474233137</v>
       </c>
       <c r="E10">
-        <v>0.3932326237778909</v>
+        <v>0.05239923194547735</v>
       </c>
       <c r="F10">
-        <v>9.964721394198278</v>
+        <v>3.295917217998436</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1154204835010475</v>
       </c>
       <c r="K10">
-        <v>0.7796175610769964</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.329457903683505</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.9609990101014603</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.364681938723777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.153443117746633</v>
+        <v>4.242275169561424</v>
       </c>
       <c r="C11">
-        <v>0.6765504616973317</v>
+        <v>0.9900732615897994</v>
       </c>
       <c r="D11">
-        <v>0.5537447817337124</v>
+        <v>0.01281641942844836</v>
       </c>
       <c r="E11">
-        <v>0.4264179757641031</v>
+        <v>0.05439289997176289</v>
       </c>
       <c r="F11">
-        <v>10.74204935060095</v>
+        <v>3.495210454585845</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1201801952025434</v>
       </c>
       <c r="K11">
-        <v>0.8492134675527154</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.446153788827829</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.035361928146244</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.510107015669632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.25248456505085</v>
+        <v>4.361084099061657</v>
       </c>
       <c r="C12">
-        <v>0.6984559086013462</v>
+        <v>1.017915616304009</v>
       </c>
       <c r="D12">
-        <v>0.5684047404061516</v>
+        <v>0.01300935765931932</v>
       </c>
       <c r="E12">
-        <v>0.4392598981473839</v>
+        <v>0.05516333528204598</v>
       </c>
       <c r="F12">
-        <v>11.04228878835067</v>
+        <v>3.572380461801004</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1220321460234928</v>
       </c>
       <c r="K12">
-        <v>0.8761847208995519</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.491346666579815</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.063855633269455</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.566452635370268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.231049813417314</v>
+        <v>4.335434031328759</v>
       </c>
       <c r="C13">
-        <v>0.6937113548906098</v>
+        <v>1.011904985924758</v>
       </c>
       <c r="D13">
-        <v>0.5652330773794745</v>
+        <v>0.01296767590417147</v>
       </c>
       <c r="E13">
-        <v>0.4364810048198535</v>
+        <v>0.0549966917324447</v>
       </c>
       <c r="F13">
-        <v>10.97734600209327</v>
+        <v>3.555680946898093</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1216309903117789</v>
       </c>
       <c r="K13">
-        <v>0.8703464709199906</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.481565636797114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.057703276540373</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.554257897040173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.161544954985573</v>
+        <v>4.252021848868594</v>
       </c>
       <c r="C14">
-        <v>0.6783407347186028</v>
+        <v>0.9923575146013093</v>
       </c>
       <c r="D14">
-        <v>0.5549444820678673</v>
+        <v>0.01283223521780386</v>
       </c>
       <c r="E14">
-        <v>0.4274686462250372</v>
+        <v>0.05445596389733964</v>
       </c>
       <c r="F14">
-        <v>10.76662548888697</v>
+        <v>3.50152378194062</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.120331527079415</v>
       </c>
       <c r="K14">
-        <v>0.8514193082202226</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.449850549470284</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.037699116362241</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.514715975285412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.11926896162754</v>
+        <v>4.201108417698151</v>
       </c>
       <c r="C15">
-        <v>0.6690021632435617</v>
+        <v>0.9804249949339123</v>
       </c>
       <c r="D15">
-        <v>0.5486834045783837</v>
+        <v>0.01274964246125521</v>
       </c>
       <c r="E15">
-        <v>0.421985836676356</v>
+        <v>0.05412681988716628</v>
       </c>
       <c r="F15">
-        <v>10.63835430286719</v>
+        <v>3.468579735231714</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1195422075042032</v>
       </c>
       <c r="K15">
-        <v>0.8399099916150945</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.430560824280946</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.025491096828056</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.49066702133797</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.881233983478694</v>
+        <v>3.911921753945933</v>
       </c>
       <c r="C16">
-        <v>0.6165672176651924</v>
+        <v>0.9126309122759437</v>
       </c>
       <c r="D16">
-        <v>0.5133852363570952</v>
+        <v>0.01228159715883059</v>
       </c>
       <c r="E16">
-        <v>0.3910994601665578</v>
+        <v>0.05227101344134688</v>
       </c>
       <c r="F16">
-        <v>9.914681726494138</v>
+        <v>3.283118292773452</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1151160246636707</v>
       </c>
       <c r="K16">
-        <v>0.7751488779074123</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.321961016908389</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9561830964628584</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.355346962854952</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.738647689013021</v>
+        <v>3.736644284224894</v>
       </c>
       <c r="C17">
-        <v>0.5852736086075083</v>
+        <v>0.8715232338551289</v>
       </c>
       <c r="D17">
-        <v>0.4922026218084454</v>
+        <v>0.01199876664827215</v>
       </c>
       <c r="E17">
-        <v>0.3725854516653726</v>
+        <v>0.05115829712632802</v>
       </c>
       <c r="F17">
-        <v>9.480007969677615</v>
+        <v>3.172127552512393</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1124824962107738</v>
       </c>
       <c r="K17">
-        <v>0.7363894485092288</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.256916496215254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9142044217698526</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.274418197416352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.657776662875335</v>
+        <v>3.636547345710312</v>
       </c>
       <c r="C18">
-        <v>0.5675620735302118</v>
+        <v>0.8480406484160596</v>
       </c>
       <c r="D18">
-        <v>0.480174848993272</v>
+        <v>0.01183752527299831</v>
       </c>
       <c r="E18">
-        <v>0.3620805668897802</v>
+        <v>0.05052724810740727</v>
       </c>
       <c r="F18">
-        <v>9.23307388972782</v>
+        <v>3.109241732816372</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1109959902686271</v>
       </c>
       <c r="K18">
-        <v>0.7144169497863473</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.220027543170637</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8902420025072644</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.22858364512561</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.630580155131781</v>
+        <v>3.602773740788621</v>
       </c>
       <c r="C19">
-        <v>0.5616117367742959</v>
+        <v>0.8401161734039135</v>
       </c>
       <c r="D19">
-        <v>0.4761276864041974</v>
+        <v>0.01178316542667801</v>
       </c>
       <c r="E19">
-        <v>0.3585471332978543</v>
+        <v>0.05031507766751986</v>
       </c>
       <c r="F19">
-        <v>9.14996581027026</v>
+        <v>3.088107052034189</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1104973680492876</v>
       </c>
       <c r="K19">
-        <v>0.7070294341664649</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.207622364060697</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8821586849583483</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.213182617307893</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.753705530123796</v>
+        <v>3.755227155404782</v>
       </c>
       <c r="C20">
-        <v>0.5885743783568671</v>
+        <v>0.8758821667390748</v>
       </c>
       <c r="D20">
-        <v>0.4944410382847479</v>
+        <v>0.01202872279668199</v>
       </c>
       <c r="E20">
-        <v>0.3745410759440588</v>
+        <v>0.05127580963379508</v>
       </c>
       <c r="F20">
-        <v>9.525954021584482</v>
+        <v>3.183842540546095</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1127598783198778</v>
       </c>
       <c r="K20">
-        <v>0.7404814885201603</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.263785257327129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9186538835443443</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.282958202685435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.181897337346015</v>
+        <v>4.276484331073391</v>
       </c>
       <c r="C21">
-        <v>0.6828393157609867</v>
+        <v>0.9980904643552719</v>
       </c>
       <c r="D21">
-        <v>0.5579578342238563</v>
+        <v>0.01287193964822642</v>
       </c>
       <c r="E21">
-        <v>0.4301078708560553</v>
+        <v>0.05461435471642773</v>
       </c>
       <c r="F21">
-        <v>10.82835003318559</v>
+        <v>3.517382934954469</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1207118158161151</v>
       </c>
       <c r="K21">
-        <v>0.8569609064712012</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.459137171646034</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.04356532406058</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.526294297349352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.474728177117697</v>
+        <v>4.624987155834447</v>
       </c>
       <c r="C22">
-        <v>0.7477726982348543</v>
+        <v>1.079746887310165</v>
       </c>
       <c r="D22">
-        <v>0.6012556741992512</v>
+        <v>0.01343912273640946</v>
       </c>
       <c r="E22">
-        <v>0.4680601401216791</v>
+        <v>0.05688741056137303</v>
       </c>
       <c r="F22">
-        <v>11.71448465455711</v>
+        <v>3.745417668766095</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1262009805002364</v>
       </c>
       <c r="K22">
-        <v>0.9367535015253239</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.5927701398479</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.127177780535945</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.692863516515601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.317096602171205</v>
+        <v>4.438192633214612</v>
       </c>
       <c r="C23">
-        <v>0.7127702748294382</v>
+        <v>1.035983530504211</v>
       </c>
       <c r="D23">
-        <v>0.577961729399135</v>
+        <v>0.01313475369686223</v>
       </c>
       <c r="E23">
-        <v>0.4476352074759475</v>
+        <v>0.05566530519306312</v>
       </c>
       <c r="F23">
-        <v>11.23793081054362</v>
+        <v>3.622710105535788</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1232424464906003</v>
       </c>
       <c r="K23">
-        <v>0.893786929449135</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.520831212143833</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.08235312177932</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.603210917892724</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.746894471223413</v>
+        <v>3.746823760089967</v>
       </c>
       <c r="C24">
-        <v>0.5870812373256911</v>
+        <v>0.8739110272466633</v>
       </c>
       <c r="D24">
-        <v>0.4934285858224428</v>
+        <v>0.01201517541490738</v>
       </c>
       <c r="E24">
-        <v>0.3736565086782377</v>
+        <v>0.05122265535543846</v>
       </c>
       <c r="F24">
-        <v>9.505172651594592</v>
+        <v>3.17854333213316</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1126343885031673</v>
       </c>
       <c r="K24">
-        <v>0.7386305174008712</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.260678327657089</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9166417508194868</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.279095121871251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.174448264786463</v>
+        <v>3.027907612434433</v>
       </c>
       <c r="C25">
-        <v>0.4622399192215028</v>
+        <v>0.7051157230205547</v>
       </c>
       <c r="D25">
-        <v>0.4080621642407607</v>
+        <v>0.01086123487651136</v>
       </c>
       <c r="E25">
-        <v>0.2992323173611098</v>
+        <v>0.04676800282181048</v>
       </c>
       <c r="F25">
-        <v>7.751078558115438</v>
+        <v>2.735209755617717</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1022536398502396</v>
       </c>
       <c r="K25">
-        <v>0.5832511823899011</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9995907726806905</v>
+        <v>0.7447269789621913</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1.956258927894439</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_28/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.515147554510008</v>
+        <v>0.8112067867964186</v>
       </c>
       <c r="C2">
-        <v>0.5844502101802505</v>
+        <v>0.1482109611407765</v>
       </c>
       <c r="D2">
-        <v>0.01004428660221279</v>
+        <v>0.00683642375285487</v>
       </c>
       <c r="E2">
-        <v>0.04372651017798113</v>
+        <v>0.01820715066130285</v>
       </c>
       <c r="F2">
-        <v>2.432535013140367</v>
+        <v>3.563211219976296</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.378013083689623</v>
       </c>
       <c r="J2">
-        <v>0.09533984823308828</v>
+        <v>0.08836777924852868</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9077420779219381</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1480885365342886</v>
       </c>
       <c r="M2">
-        <v>0.6224398310635451</v>
+        <v>0.1831921978197393</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.736277110955072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.175248970279142</v>
+        <v>0.7189302984834285</v>
       </c>
       <c r="C3">
-        <v>0.5042773859045155</v>
+        <v>0.1283672673337719</v>
       </c>
       <c r="D3">
-        <v>0.009505973287614822</v>
+        <v>0.006563240875657073</v>
       </c>
       <c r="E3">
-        <v>0.04179205917053608</v>
+        <v>0.01824222240814555</v>
       </c>
       <c r="F3">
-        <v>2.239266383350937</v>
+        <v>3.389357402522208</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.275948252142456</v>
       </c>
       <c r="J3">
-        <v>0.09103173404245268</v>
+        <v>0.08792990367832942</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7991291568772851</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.139438054797175</v>
       </c>
       <c r="M3">
-        <v>0.5415770070746362</v>
+        <v>0.1654215684863516</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.59601184214452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.969515515620742</v>
+        <v>0.6634727544464454</v>
       </c>
       <c r="C4">
-        <v>0.4556553810004118</v>
+        <v>0.1163795804507259</v>
       </c>
       <c r="D4">
-        <v>0.009181722359530298</v>
+        <v>0.006390934896652212</v>
       </c>
       <c r="E4">
-        <v>0.04066050230628449</v>
+        <v>0.01827601981504934</v>
       </c>
       <c r="F4">
-        <v>2.125593605323374</v>
+        <v>3.28583584969661</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.215202059036201</v>
       </c>
       <c r="J4">
-        <v>0.08855025571411801</v>
+        <v>0.08769186207337931</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7337525362871133</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1343239176133082</v>
       </c>
       <c r="M4">
-        <v>0.4927284799483758</v>
+        <v>0.1547852671879149</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.513593316547627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.886318417415538</v>
+        <v>0.6411500614172212</v>
       </c>
       <c r="C5">
-        <v>0.4359687141325708</v>
+        <v>0.1115377994752293</v>
       </c>
       <c r="D5">
-        <v>0.009051009010155653</v>
+        <v>0.006319504459604275</v>
       </c>
       <c r="E5">
-        <v>0.04021266545949764</v>
+        <v>0.01829283653093672</v>
       </c>
       <c r="F5">
-        <v>2.080411992785471</v>
+        <v>3.244405200552748</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.190897561610825</v>
       </c>
       <c r="J5">
-        <v>0.08757717162828627</v>
+        <v>0.08760233971937126</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7074104654870013</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1322867640198595</v>
       </c>
       <c r="M5">
-        <v>0.4729983676022016</v>
+        <v>0.1505150016892571</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.480851802387136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.872539419935379</v>
+        <v>0.6374594031509275</v>
       </c>
       <c r="C6">
-        <v>0.4327067569871019</v>
+        <v>0.1107362703732235</v>
       </c>
       <c r="D6">
-        <v>0.009029385961941472</v>
+        <v>0.006307568377449613</v>
       </c>
       <c r="E6">
-        <v>0.04013908110195885</v>
+        <v>0.01829581169333006</v>
       </c>
       <c r="F6">
-        <v>2.072975344382684</v>
+        <v>3.237569722069011</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.186888069641668</v>
       </c>
       <c r="J6">
-        <v>0.08741781120107106</v>
+        <v>0.08758791896044293</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.7030536164379271</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1319512529002012</v>
       </c>
       <c r="M6">
-        <v>0.4697321264174192</v>
+        <v>0.1498096592147284</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.475463708838845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.968391027280006</v>
+        <v>0.6631706144949874</v>
       </c>
       <c r="C7">
-        <v>0.4553893958974982</v>
+        <v>0.1163141149331182</v>
       </c>
       <c r="D7">
-        <v>0.009179953944547847</v>
+        <v>0.00638997655857132</v>
       </c>
       <c r="E7">
-        <v>0.04065440991914748</v>
+        <v>0.01827623433582293</v>
       </c>
       <c r="F7">
-        <v>2.124979795847096</v>
+        <v>3.285274114779938</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.214872500162684</v>
       </c>
       <c r="J7">
-        <v>0.08853698176955049</v>
+        <v>0.08769062479233547</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7333961043570696</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1342962574093676</v>
       </c>
       <c r="M7">
-        <v>0.4924617120304617</v>
+        <v>0.1547274236928509</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.513148442619226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.397268970173798</v>
+        <v>0.7791249435765053</v>
       </c>
       <c r="C8">
-        <v>0.5566655162178904</v>
+        <v>0.1413242821031133</v>
       </c>
       <c r="D8">
-        <v>0.009857270284518549</v>
+        <v>0.006743137463601556</v>
       </c>
       <c r="E8">
-        <v>0.04304731114656768</v>
+        <v>0.01821667306631936</v>
       </c>
       <c r="F8">
-        <v>2.364786977620696</v>
+        <v>3.502562202834326</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.342401504756751</v>
       </c>
       <c r="J8">
-        <v>0.09381852654264122</v>
+        <v>0.0882102376328433</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8700009521689651</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1450632098448352</v>
       </c>
       <c r="M8">
-        <v>0.5943758916536339</v>
+        <v>0.1770046873509017</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.687090050818384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.267102716009845</v>
+        <v>1.017276325472238</v>
       </c>
       <c r="C9">
-        <v>0.7613172606230307</v>
+        <v>0.1922276015186242</v>
       </c>
       <c r="D9">
-        <v>0.0112440810369101</v>
+        <v>0.007402775919318927</v>
       </c>
       <c r="E9">
-        <v>0.0482283364169902</v>
+        <v>0.01819919355252697</v>
       </c>
       <c r="F9">
-        <v>2.880428141891542</v>
+        <v>3.956988919300755</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.609362216248599</v>
       </c>
       <c r="J9">
-        <v>0.1056258199266509</v>
+        <v>0.08948673582962741</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.14979506249108</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1678758491305672</v>
       </c>
       <c r="M9">
-        <v>0.8018729940719709</v>
+        <v>0.2231187370994547</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.061928949795998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.932023996327985</v>
+        <v>1.200701629091355</v>
       </c>
       <c r="C10">
-        <v>0.9173445679928705</v>
+        <v>0.2312183016195917</v>
       </c>
       <c r="D10">
-        <v>0.01231407474233137</v>
+        <v>0.007872755069929127</v>
       </c>
       <c r="E10">
-        <v>0.05239923194547735</v>
+        <v>0.01825008217104784</v>
       </c>
       <c r="F10">
-        <v>3.295917217998436</v>
+        <v>4.31228065106373</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.818258046324786</v>
       </c>
       <c r="J10">
-        <v>0.1154204835010475</v>
+        <v>0.09060130169140379</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.364915393711044</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1858750615794946</v>
       </c>
       <c r="M10">
-        <v>0.9609990101014603</v>
+        <v>0.2588560993000257</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.364681938723777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.242275169561424</v>
+        <v>1.286451455336476</v>
       </c>
       <c r="C11">
-        <v>0.9900732615897994</v>
+        <v>0.2494162176816133</v>
       </c>
       <c r="D11">
-        <v>0.01281641942844836</v>
+        <v>0.008084816329567701</v>
       </c>
       <c r="E11">
-        <v>0.05439289997176289</v>
+        <v>0.01828789034259515</v>
       </c>
       <c r="F11">
-        <v>3.495210454585845</v>
+        <v>4.479589360625909</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.916669933536568</v>
       </c>
       <c r="J11">
-        <v>0.1201801952025434</v>
+        <v>0.09115155962644295</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.465422940002696</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.194382584824794</v>
       </c>
       <c r="M11">
-        <v>1.035361928146244</v>
+        <v>0.2756105783456704</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.510107015669632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.361084099061657</v>
+        <v>1.319297933430192</v>
       </c>
       <c r="C12">
-        <v>1.017915616304009</v>
+        <v>0.2563841894092604</v>
       </c>
       <c r="D12">
-        <v>0.01300935765931932</v>
+        <v>0.008165010204487899</v>
       </c>
       <c r="E12">
-        <v>0.05516333528204598</v>
+        <v>0.01830439307637022</v>
       </c>
       <c r="F12">
-        <v>3.572380461801004</v>
+        <v>4.543856640192843</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.954478630812005</v>
       </c>
       <c r="J12">
-        <v>0.1220321460234928</v>
+        <v>0.09136658958454547</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.503915912320451</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1976547442524463</v>
       </c>
       <c r="M12">
-        <v>1.063855633269455</v>
+        <v>0.2820351887979626</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.566452635370268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.335434031328759</v>
+        <v>1.312206454350957</v>
       </c>
       <c r="C13">
-        <v>1.011904985924758</v>
+        <v>0.2548799157308679</v>
       </c>
       <c r="D13">
-        <v>0.01296767590417147</v>
+        <v>0.008147741414925136</v>
       </c>
       <c r="E13">
-        <v>0.0549966917324447</v>
+        <v>0.01830074037360774</v>
       </c>
       <c r="F13">
-        <v>3.555680946898093</v>
+        <v>4.529973419830526</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.946310790336867</v>
       </c>
       <c r="J13">
-        <v>0.1216309903117789</v>
+        <v>0.09131997537818037</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.495605619311391</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1969477002265378</v>
       </c>
       <c r="M13">
-        <v>1.057703276540373</v>
+        <v>0.2806478285670906</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.554257897040173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.252021848868594</v>
+        <v>1.289145980608623</v>
       </c>
       <c r="C14">
-        <v>0.9923575146013093</v>
+        <v>0.2499878730300793</v>
       </c>
       <c r="D14">
-        <v>0.01283223521780386</v>
+        <v>0.008091415237256427</v>
       </c>
       <c r="E14">
-        <v>0.05445596389733964</v>
+        <v>0.01828920375104204</v>
       </c>
       <c r="F14">
-        <v>3.50152378194062</v>
+        <v>4.484857839243261</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.919769272253987</v>
       </c>
       <c r="J14">
-        <v>0.120331527079415</v>
+        <v>0.09116911412907314</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.468580785532794</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.19465074645084</v>
       </c>
       <c r="M14">
-        <v>1.037699116362241</v>
+        <v>0.2761374786156168</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.514715975285412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.201108417698151</v>
+        <v>1.275070941467249</v>
       </c>
       <c r="C15">
-        <v>0.9804249949339123</v>
+        <v>0.2470016912148196</v>
       </c>
       <c r="D15">
-        <v>0.01274964246125521</v>
+        <v>0.008056904132109466</v>
       </c>
       <c r="E15">
-        <v>0.05412681988716628</v>
+        <v>0.01828242433247151</v>
       </c>
       <c r="F15">
-        <v>3.468579735231714</v>
+        <v>4.457344832104866</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.90358418669355</v>
       </c>
       <c r="J15">
-        <v>0.1195422075042032</v>
+        <v>0.09107758831257584</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.45208531453693</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1932505222933827</v>
       </c>
       <c r="M15">
-        <v>1.025491096828056</v>
+        <v>0.2733854520355834</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.49066702133797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.911921753945933</v>
+        <v>1.195147703488061</v>
       </c>
       <c r="C16">
-        <v>0.9126309122759437</v>
+        <v>0.2300391752457358</v>
       </c>
       <c r="D16">
-        <v>0.01228159715883059</v>
+        <v>0.007858872998975031</v>
       </c>
       <c r="E16">
-        <v>0.05227101344134688</v>
+        <v>0.01824791272009829</v>
       </c>
       <c r="F16">
-        <v>3.283118292773452</v>
+        <v>4.301468824098464</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.81189932813497</v>
       </c>
       <c r="J16">
-        <v>0.1151160246636707</v>
+        <v>0.09056624790615331</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.358404616352345</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1853258879957167</v>
       </c>
       <c r="M16">
-        <v>0.9561830964628584</v>
+        <v>0.2577718732988146</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.355346962854952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.736644284224894</v>
+        <v>1.146737904168589</v>
       </c>
       <c r="C17">
-        <v>0.8715232338551289</v>
+        <v>0.2197584216609414</v>
       </c>
       <c r="D17">
-        <v>0.01199876664827215</v>
+        <v>0.007737036629521299</v>
       </c>
       <c r="E17">
-        <v>0.05115829712632802</v>
+        <v>0.01823054781926547</v>
       </c>
       <c r="F17">
-        <v>3.172127552512393</v>
+        <v>4.207363757614473</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.756558305267049</v>
       </c>
       <c r="J17">
-        <v>0.1124824962107738</v>
+        <v>0.09026393263209087</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.301648292531866</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1805493625789438</v>
       </c>
       <c r="M17">
-        <v>0.9142044217698526</v>
+        <v>0.2483266470516092</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.274418197416352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.636547345710312</v>
+        <v>1.119108369273562</v>
       </c>
       <c r="C18">
-        <v>0.8480406484160596</v>
+        <v>0.2138878887563749</v>
       </c>
       <c r="D18">
-        <v>0.01183752527299831</v>
+        <v>0.007666786777402734</v>
       </c>
       <c r="E18">
-        <v>0.05052724810740727</v>
+        <v>0.01822193455819043</v>
       </c>
       <c r="F18">
-        <v>3.109241732816372</v>
+        <v>4.153765967009747</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.725042510349709</v>
       </c>
       <c r="J18">
-        <v>0.1109959902686271</v>
+        <v>0.09009408970917576</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.269249404084832</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1778318129834702</v>
       </c>
       <c r="M18">
-        <v>0.8902420025072644</v>
+        <v>0.2429402596170043</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.22858364512561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.602773740788621</v>
+        <v>1.109789085995089</v>
       </c>
       <c r="C19">
-        <v>0.8401161734039135</v>
+        <v>0.2119072545314253</v>
       </c>
       <c r="D19">
-        <v>0.01178316542667801</v>
+        <v>0.007642967755755237</v>
       </c>
       <c r="E19">
-        <v>0.05031507766751986</v>
+        <v>0.01821925212119702</v>
       </c>
       <c r="F19">
-        <v>3.088107052034189</v>
+        <v>4.135706816904246</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.714424279242138</v>
       </c>
       <c r="J19">
-        <v>0.1104973680492876</v>
+        <v>0.09003726502784559</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.258320417269374</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1769166797699313</v>
       </c>
       <c r="M19">
-        <v>0.8821586849583483</v>
+        <v>0.2411242196409979</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.213182617307893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.755227155404782</v>
+        <v>1.151868712723711</v>
       </c>
       <c r="C20">
-        <v>0.8758821667390748</v>
+        <v>0.2208483348044865</v>
       </c>
       <c r="D20">
-        <v>0.01202872279668199</v>
+        <v>0.007750023250492788</v>
       </c>
       <c r="E20">
-        <v>0.05127580963379508</v>
+        <v>0.01823225354638947</v>
       </c>
       <c r="F20">
-        <v>3.183842540546095</v>
+        <v>4.217326008204566</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.762416475035792</v>
       </c>
       <c r="J20">
-        <v>0.1127598783198778</v>
+        <v>0.09029569332886211</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.307664294708729</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1810547177753108</v>
       </c>
       <c r="M20">
-        <v>0.9186538835443443</v>
+        <v>0.2493272609710573</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.282958202685435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.276484331073391</v>
+        <v>1.29590886328026</v>
       </c>
       <c r="C21">
-        <v>0.9980904643552719</v>
+        <v>0.2514226102150303</v>
       </c>
       <c r="D21">
-        <v>0.01287193964822642</v>
+        <v>0.008107961341604408</v>
       </c>
       <c r="E21">
-        <v>0.05461435471642773</v>
+        <v>0.01829253235405748</v>
       </c>
       <c r="F21">
-        <v>3.517382934954469</v>
+        <v>4.498083859617708</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.927549972553706</v>
       </c>
       <c r="J21">
-        <v>0.1207118158161151</v>
+        <v>0.0912132412756641</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.476506442340138</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1953240068499085</v>
       </c>
       <c r="M21">
-        <v>1.04356532406058</v>
+        <v>0.277460032868639</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.526294297349352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.624987155834447</v>
+        <v>1.392255635254344</v>
       </c>
       <c r="C22">
-        <v>1.079746887310165</v>
+        <v>0.2718581304815473</v>
       </c>
       <c r="D22">
-        <v>0.01343912273640946</v>
+        <v>0.008341339162068806</v>
       </c>
       <c r="E22">
-        <v>0.05688741056137303</v>
+        <v>0.01834471047065733</v>
       </c>
       <c r="F22">
-        <v>3.745417668766095</v>
+        <v>4.686936259633626</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.03866477975123</v>
       </c>
       <c r="J22">
-        <v>0.1262009805002364</v>
+        <v>0.09185196311925736</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.589406233404759</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2049468938663779</v>
       </c>
       <c r="M22">
-        <v>1.127177780535945</v>
+        <v>0.2963176300412798</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.692863516515601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.438192633214612</v>
+        <v>1.340616171832238</v>
       </c>
       <c r="C23">
-        <v>1.035983530504211</v>
+        <v>0.2609060347102741</v>
       </c>
       <c r="D23">
-        <v>0.01313475369686223</v>
+        <v>0.008216779927071372</v>
       </c>
       <c r="E23">
-        <v>0.05566530519306312</v>
+        <v>0.01831566423776465</v>
       </c>
       <c r="F23">
-        <v>3.622710105535788</v>
+        <v>4.585618249751661</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.979048949022825</v>
       </c>
       <c r="J23">
-        <v>0.1232424464906003</v>
+        <v>0.09150733486582396</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.528897363897244</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1997821576226784</v>
       </c>
       <c r="M23">
-        <v>1.08235312177932</v>
+        <v>0.2862068128248154</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.603210917892724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.746823760089967</v>
+        <v>1.149548448479692</v>
       </c>
       <c r="C24">
-        <v>0.8739110272466633</v>
+        <v>0.2203554612351581</v>
       </c>
       <c r="D24">
-        <v>0.01201517541490738</v>
+        <v>0.007744152646367297</v>
       </c>
       <c r="E24">
-        <v>0.05122265535543846</v>
+        <v>0.01823147812548953</v>
       </c>
       <c r="F24">
-        <v>3.17854333213316</v>
+        <v>4.212820510381022</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.759767064642134</v>
       </c>
       <c r="J24">
-        <v>0.1126343885031673</v>
+        <v>0.0902813220095311</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.304943744242792</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1808261581413575</v>
       </c>
       <c r="M24">
-        <v>0.9166417508194868</v>
+        <v>0.248874747628431</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.279095121871251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.027907612434433</v>
+        <v>0.951512294180958</v>
       </c>
       <c r="C25">
-        <v>0.7051157230205547</v>
+        <v>0.1782131039206121</v>
       </c>
       <c r="D25">
-        <v>0.01086123487651136</v>
+        <v>0.007227335874576468</v>
       </c>
       <c r="E25">
-        <v>0.04676800282181048</v>
+        <v>0.01819298263799318</v>
       </c>
       <c r="F25">
-        <v>2.735209755617717</v>
+        <v>3.830614423563247</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.535093088281798</v>
       </c>
       <c r="J25">
-        <v>0.1022536398502396</v>
+        <v>0.0891119003048324</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.072603632933095</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1615026614874253</v>
       </c>
       <c r="M25">
-        <v>0.7447269789621913</v>
+        <v>0.2103467777554968</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.956258927894439</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_28/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8112067867964186</v>
+        <v>1.113956600348445</v>
       </c>
       <c r="C2">
-        <v>0.1482109611407765</v>
+        <v>0.07041660960562979</v>
       </c>
       <c r="D2">
-        <v>0.00683642375285487</v>
+        <v>0.002230355565169262</v>
       </c>
       <c r="E2">
-        <v>0.01820715066130285</v>
+        <v>0.06147272907012846</v>
       </c>
       <c r="F2">
-        <v>3.563211219976296</v>
+        <v>4.984343643786985</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,19 +442,19 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.378013083689623</v>
+        <v>3.280589368861371</v>
       </c>
       <c r="J2">
-        <v>0.08836777924852868</v>
+        <v>0.1775483532458431</v>
       </c>
       <c r="K2">
-        <v>0.9077420779219381</v>
+        <v>0.9994063224192757</v>
       </c>
       <c r="L2">
-        <v>0.1480885365342886</v>
+        <v>0.3262083266678957</v>
       </c>
       <c r="M2">
-        <v>0.1831921978197393</v>
+        <v>0.3088152948878857</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7189302984834285</v>
+        <v>1.1013956312689</v>
       </c>
       <c r="C3">
-        <v>0.1283672673337719</v>
+        <v>0.06531331347655112</v>
       </c>
       <c r="D3">
-        <v>0.006563240875657073</v>
+        <v>0.002203931867057918</v>
       </c>
       <c r="E3">
-        <v>0.01824222240814555</v>
+        <v>0.0617042280321658</v>
       </c>
       <c r="F3">
-        <v>3.389357402522208</v>
+        <v>4.944654813428286</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,19 +489,19 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.275948252142456</v>
+        <v>3.255442672115777</v>
       </c>
       <c r="J3">
-        <v>0.08792990367832942</v>
+        <v>0.1775156476802202</v>
       </c>
       <c r="K3">
-        <v>0.7991291568772851</v>
+        <v>0.9807796220941611</v>
       </c>
       <c r="L3">
-        <v>0.139438054797175</v>
+        <v>0.3260158177424373</v>
       </c>
       <c r="M3">
-        <v>0.1654215684863516</v>
+        <v>0.3069278121838224</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6634727544464454</v>
+        <v>1.094444579545666</v>
       </c>
       <c r="C4">
-        <v>0.1163795804507259</v>
+        <v>0.06222300632268229</v>
       </c>
       <c r="D4">
-        <v>0.006390934896652212</v>
+        <v>0.00219087695088227</v>
       </c>
       <c r="E4">
-        <v>0.01827601981504934</v>
+        <v>0.0618583785675364</v>
       </c>
       <c r="F4">
-        <v>3.28583584969661</v>
+        <v>4.921493858767235</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,19 +536,19 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.215202059036201</v>
+        <v>3.240666928315861</v>
       </c>
       <c r="J4">
-        <v>0.08769186207337931</v>
+        <v>0.1775099148170582</v>
       </c>
       <c r="K4">
-        <v>0.7337525362871133</v>
+        <v>0.9700475144179279</v>
       </c>
       <c r="L4">
-        <v>0.1343239176133082</v>
+        <v>0.3260330249507106</v>
       </c>
       <c r="M4">
-        <v>0.1547852671879149</v>
+        <v>0.3059494516714132</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6411500614172212</v>
+        <v>1.091803706211067</v>
       </c>
       <c r="C5">
-        <v>0.1115377994752293</v>
+        <v>0.0609744624101296</v>
       </c>
       <c r="D5">
-        <v>0.006319504459604275</v>
+        <v>0.002186354025436543</v>
       </c>
       <c r="E5">
-        <v>0.01829283653093672</v>
+        <v>0.06192422509731399</v>
       </c>
       <c r="F5">
-        <v>3.244405200552748</v>
+        <v>4.912359305782971</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,19 +583,19 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.190897561610825</v>
+        <v>3.234812649725157</v>
       </c>
       <c r="J5">
-        <v>0.08760233971937126</v>
+        <v>0.177511189770005</v>
       </c>
       <c r="K5">
-        <v>0.7074104654870013</v>
+        <v>0.9658514350865914</v>
       </c>
       <c r="L5">
-        <v>0.1322867640198595</v>
+        <v>0.3260741512716265</v>
       </c>
       <c r="M5">
-        <v>0.1505150016892571</v>
+        <v>0.3055962387204367</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6374594031509275</v>
+        <v>1.091376779643269</v>
       </c>
       <c r="C6">
-        <v>0.1107362703732235</v>
+        <v>0.06076779190254911</v>
       </c>
       <c r="D6">
-        <v>0.006307568377449613</v>
+        <v>0.002185651141331846</v>
       </c>
       <c r="E6">
-        <v>0.01829581169333006</v>
+        <v>0.0619353420724349</v>
       </c>
       <c r="F6">
-        <v>3.237569722069011</v>
+        <v>4.910860862385761</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,19 +630,19 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.186888069641668</v>
+        <v>3.233850631598102</v>
       </c>
       <c r="J6">
-        <v>0.08758791896044293</v>
+        <v>0.1775116196713356</v>
       </c>
       <c r="K6">
-        <v>0.7030536164379271</v>
+        <v>0.9651653941049716</v>
       </c>
       <c r="L6">
-        <v>0.1319512529002012</v>
+        <v>0.3260830425987322</v>
       </c>
       <c r="M6">
-        <v>0.1498096592147284</v>
+        <v>0.305540336852939</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6631706144949874</v>
+        <v>1.094408187112862</v>
       </c>
       <c r="C7">
-        <v>0.1163141149331182</v>
+        <v>0.06220612445582674</v>
       </c>
       <c r="D7">
-        <v>0.00638997655857132</v>
+        <v>0.002190812725451963</v>
       </c>
       <c r="E7">
-        <v>0.01827623433582293</v>
+        <v>0.06185925432052652</v>
       </c>
       <c r="F7">
-        <v>3.285274114779938</v>
+        <v>4.921369437341411</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,19 +677,19 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.214872500162684</v>
+        <v>3.240587299636843</v>
       </c>
       <c r="J7">
-        <v>0.08769062479233547</v>
+        <v>0.1775099173859527</v>
       </c>
       <c r="K7">
-        <v>0.7333961043570696</v>
+        <v>0.9699902064083687</v>
       </c>
       <c r="L7">
-        <v>0.1342962574093676</v>
+        <v>0.3260334413811279</v>
       </c>
       <c r="M7">
-        <v>0.1547274236928509</v>
+        <v>0.3059445038861561</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7791249435765053</v>
+        <v>1.109467693689993</v>
       </c>
       <c r="C8">
-        <v>0.1413242821031133</v>
+        <v>0.06864799846519531</v>
       </c>
       <c r="D8">
-        <v>0.006743137463601556</v>
+        <v>0.002220586903620259</v>
       </c>
       <c r="E8">
-        <v>0.01821667306631936</v>
+        <v>0.06155006284905618</v>
       </c>
       <c r="F8">
-        <v>3.502562202834326</v>
+        <v>4.970408120037916</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.342401504756751</v>
+        <v>3.27178080248575</v>
       </c>
       <c r="J8">
-        <v>0.0882102376328433</v>
+        <v>0.1775341001088471</v>
       </c>
       <c r="K8">
-        <v>0.8700009521689651</v>
+        <v>0.9928376259280469</v>
       </c>
       <c r="L8">
-        <v>0.1450632098448352</v>
+        <v>0.3261138833635613</v>
       </c>
       <c r="M8">
-        <v>0.1770046873509017</v>
+        <v>0.3081270573527988</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.017276325472238</v>
+        <v>1.145032888777536</v>
       </c>
       <c r="C9">
-        <v>0.1922276015186242</v>
+        <v>0.08162646807384988</v>
       </c>
       <c r="D9">
-        <v>0.007402775919318927</v>
+        <v>0.002304129705258617</v>
       </c>
       <c r="E9">
-        <v>0.01819919355252697</v>
+        <v>0.06103862800945858</v>
       </c>
       <c r="F9">
-        <v>3.956988919300755</v>
+        <v>5.076170379350856</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,19 +771,19 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.609362216248599</v>
+        <v>3.33823325654933</v>
       </c>
       <c r="J9">
-        <v>0.08948673582962741</v>
+        <v>0.1776952742086131</v>
       </c>
       <c r="K9">
-        <v>1.14979506249108</v>
+        <v>1.043232231780621</v>
       </c>
       <c r="L9">
-        <v>0.1678758491305672</v>
+        <v>0.327343571386649</v>
       </c>
       <c r="M9">
-        <v>0.2231187370994547</v>
+        <v>0.3138372194715515</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.200701629091355</v>
+        <v>1.174835432528766</v>
       </c>
       <c r="C10">
-        <v>0.2312183016195917</v>
+        <v>0.09137883455935025</v>
       </c>
       <c r="D10">
-        <v>0.007872755069929127</v>
+        <v>0.002380874737918148</v>
       </c>
       <c r="E10">
-        <v>0.01825008217104784</v>
+        <v>0.060720188559511</v>
       </c>
       <c r="F10">
-        <v>4.31228065106373</v>
+        <v>5.159752352218788</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.818258046324786</v>
+        <v>3.390296884204375</v>
       </c>
       <c r="J10">
-        <v>0.09060130169140379</v>
+        <v>0.1778829628794441</v>
       </c>
       <c r="K10">
-        <v>1.364915393711044</v>
+        <v>1.083670504081027</v>
       </c>
       <c r="L10">
-        <v>0.1858750615794946</v>
+        <v>0.3288977550280023</v>
       </c>
       <c r="M10">
-        <v>0.2588560993000257</v>
+        <v>0.3189020754154193</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.286451455336476</v>
+        <v>1.189190207051666</v>
       </c>
       <c r="C11">
-        <v>0.2494162176816133</v>
+        <v>0.09586397661169599</v>
       </c>
       <c r="D11">
-        <v>0.008084816329567701</v>
+        <v>0.002419133039365917</v>
       </c>
       <c r="E11">
-        <v>0.01828789034259515</v>
+        <v>0.0605876548239106</v>
       </c>
       <c r="F11">
-        <v>4.479589360625909</v>
+        <v>5.199059108563858</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.916669933536568</v>
+        <v>3.414690671700527</v>
       </c>
       <c r="J11">
-        <v>0.09115155962644295</v>
+        <v>0.1779833785011462</v>
       </c>
       <c r="K11">
-        <v>1.465422940002696</v>
+        <v>1.102809689351176</v>
       </c>
       <c r="L11">
-        <v>0.194382584824794</v>
+        <v>0.3297455607448256</v>
       </c>
       <c r="M11">
-        <v>0.2756105783456704</v>
+        <v>0.3213946448100273</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.319297933430192</v>
+        <v>1.194740505880844</v>
       </c>
       <c r="C12">
-        <v>0.2563841894092604</v>
+        <v>0.09756948384924158</v>
       </c>
       <c r="D12">
-        <v>0.008165010204487899</v>
+        <v>0.002434102115730141</v>
       </c>
       <c r="E12">
-        <v>0.01830439307637022</v>
+        <v>0.06053923125739669</v>
       </c>
       <c r="F12">
-        <v>4.543856640192843</v>
+        <v>5.214128627864511</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.954478630812005</v>
+        <v>3.424030286818606</v>
       </c>
       <c r="J12">
-        <v>0.09136658958454547</v>
+        <v>0.1780235633239222</v>
       </c>
       <c r="K12">
-        <v>1.503915912320451</v>
+        <v>1.110164144120859</v>
       </c>
       <c r="L12">
-        <v>0.1976547442524463</v>
+        <v>0.3300867968581258</v>
       </c>
       <c r="M12">
-        <v>0.2820351887979626</v>
+        <v>0.322365577454228</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.312206454350957</v>
+        <v>1.193540062554632</v>
       </c>
       <c r="C13">
-        <v>0.2548799157308679</v>
+        <v>0.09720185624885858</v>
       </c>
       <c r="D13">
-        <v>0.008147741414925136</v>
+        <v>0.002430856838955719</v>
       </c>
       <c r="E13">
-        <v>0.01830074037360774</v>
+        <v>0.06054958181336545</v>
       </c>
       <c r="F13">
-        <v>4.529973419830526</v>
+        <v>5.210874911383144</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.946310790336867</v>
+        <v>3.422014285028951</v>
       </c>
       <c r="J13">
-        <v>0.09131997537818037</v>
+        <v>0.1780148127925472</v>
       </c>
       <c r="K13">
-        <v>1.495605619311391</v>
+        <v>1.108575479084521</v>
       </c>
       <c r="L13">
-        <v>0.1969477002265378</v>
+        <v>0.3300124084665299</v>
       </c>
       <c r="M13">
-        <v>0.2806478285670906</v>
+        <v>0.3221552676104267</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.289145980608623</v>
+        <v>1.189644540790596</v>
       </c>
       <c r="C14">
-        <v>0.2499878730300793</v>
+        <v>0.09600414738216045</v>
       </c>
       <c r="D14">
-        <v>0.008091415237256427</v>
+        <v>0.002420354903135191</v>
       </c>
       <c r="E14">
-        <v>0.01828920375104204</v>
+        <v>0.06058363568078295</v>
       </c>
       <c r="F14">
-        <v>4.484857839243261</v>
+        <v>5.200295180442822</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.919769272253987</v>
+        <v>3.415456998001147</v>
       </c>
       <c r="J14">
-        <v>0.09116911412907314</v>
+        <v>0.1779866412631108</v>
       </c>
       <c r="K14">
-        <v>1.468580785532794</v>
+        <v>1.103412603501454</v>
       </c>
       <c r="L14">
-        <v>0.19465074645084</v>
+        <v>0.3297732301177803</v>
       </c>
       <c r="M14">
-        <v>0.2761374786156168</v>
+        <v>0.3214739822325683</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.275070941467249</v>
+        <v>1.18727332067678</v>
       </c>
       <c r="C15">
-        <v>0.2470016912148196</v>
+        <v>0.09527144046930403</v>
       </c>
       <c r="D15">
-        <v>0.008056904132109466</v>
+        <v>0.002413984876394437</v>
       </c>
       <c r="E15">
-        <v>0.01828242433247151</v>
+        <v>0.06060472414616047</v>
       </c>
       <c r="F15">
-        <v>4.457344832104866</v>
+        <v>5.193838873811188</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.90358418669355</v>
+        <v>3.411453786569922</v>
       </c>
       <c r="J15">
-        <v>0.09107758831257584</v>
+        <v>0.1779696665602089</v>
       </c>
       <c r="K15">
-        <v>1.45208531453693</v>
+        <v>1.100264107582774</v>
       </c>
       <c r="L15">
-        <v>0.1932505222933827</v>
+        <v>0.3296293542118462</v>
       </c>
       <c r="M15">
-        <v>0.2733854520355834</v>
+        <v>0.321060196272974</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.195147703488061</v>
+        <v>1.173913342438738</v>
       </c>
       <c r="C16">
-        <v>0.2300391752457358</v>
+        <v>0.09108670694753584</v>
       </c>
       <c r="D16">
-        <v>0.007858872998975031</v>
+        <v>0.00237844183060254</v>
       </c>
       <c r="E16">
-        <v>0.01824791272009829</v>
+        <v>0.06072909726295528</v>
       </c>
       <c r="F16">
-        <v>4.301468824098464</v>
+        <v>5.157209430303482</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.81189932813497</v>
+        <v>3.388716988366099</v>
       </c>
       <c r="J16">
-        <v>0.09056624790615331</v>
+        <v>0.1778767028196135</v>
       </c>
       <c r="K16">
-        <v>1.358404616352345</v>
+        <v>1.082434670575651</v>
       </c>
       <c r="L16">
-        <v>0.1853258879957167</v>
+        <v>0.3288451773459187</v>
       </c>
       <c r="M16">
-        <v>0.2577718732988146</v>
+        <v>0.3187429688033312</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.146737904168589</v>
+        <v>1.165921519225549</v>
       </c>
       <c r="C17">
-        <v>0.2197584216609414</v>
+        <v>0.08853204357779987</v>
       </c>
       <c r="D17">
-        <v>0.007737036629521299</v>
+        <v>0.002357494634258828</v>
       </c>
       <c r="E17">
-        <v>0.01823054781926547</v>
+        <v>0.06080854713328776</v>
       </c>
       <c r="F17">
-        <v>4.207363757614473</v>
+        <v>5.135067642617258</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.756558305267049</v>
+        <v>3.374950598697595</v>
       </c>
       <c r="J17">
-        <v>0.09026393263209087</v>
+        <v>0.177823521697352</v>
       </c>
       <c r="K17">
-        <v>1.301648292531866</v>
+        <v>1.071687293696556</v>
       </c>
       <c r="L17">
-        <v>0.1805493625789438</v>
+        <v>0.3284001320821943</v>
       </c>
       <c r="M17">
-        <v>0.2483266470516092</v>
+        <v>0.3173696706694251</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.119108369273562</v>
+        <v>1.161399905892836</v>
       </c>
       <c r="C18">
-        <v>0.2138878887563749</v>
+        <v>0.08706725220160649</v>
       </c>
       <c r="D18">
-        <v>0.007666786777402734</v>
+        <v>0.002345761342590791</v>
       </c>
       <c r="E18">
-        <v>0.01822193455819043</v>
+        <v>0.06085540527233047</v>
       </c>
       <c r="F18">
-        <v>4.153765967009747</v>
+        <v>5.122453204132142</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.725042510349709</v>
+        <v>3.367099334348893</v>
       </c>
       <c r="J18">
-        <v>0.09009408970917576</v>
+        <v>0.1777943486420632</v>
       </c>
       <c r="K18">
-        <v>1.269249404084832</v>
+        <v>1.065575682862942</v>
       </c>
       <c r="L18">
-        <v>0.1778318129834702</v>
+        <v>0.3281574098761766</v>
       </c>
       <c r="M18">
-        <v>0.2429402596170043</v>
+        <v>0.3165975358548607</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.109789085995089</v>
+        <v>1.159881865651442</v>
       </c>
       <c r="C19">
-        <v>0.2119072545314253</v>
+        <v>0.08657208402692618</v>
       </c>
       <c r="D19">
-        <v>0.007642967755755237</v>
+        <v>0.002341842742549005</v>
       </c>
       <c r="E19">
-        <v>0.01821925212119702</v>
+        <v>0.06087147023629136</v>
       </c>
       <c r="F19">
-        <v>4.135706816904246</v>
+        <v>5.118202938131418</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.714424279242138</v>
+        <v>3.364452499339222</v>
       </c>
       <c r="J19">
-        <v>0.09003726502784559</v>
+        <v>0.1777847143031615</v>
       </c>
       <c r="K19">
-        <v>1.258320417269374</v>
+        <v>1.063518420578418</v>
       </c>
       <c r="L19">
-        <v>0.1769166797699313</v>
+        <v>0.3280775067786763</v>
       </c>
       <c r="M19">
-        <v>0.2411242196409979</v>
+        <v>0.3163391547339671</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.151868712723711</v>
+        <v>1.16676449435343</v>
       </c>
       <c r="C20">
-        <v>0.2208483348044865</v>
+        <v>0.08880351696581101</v>
       </c>
       <c r="D20">
-        <v>0.007750023250492788</v>
+        <v>0.002359691898487171</v>
       </c>
       <c r="E20">
-        <v>0.01823225354638947</v>
+        <v>0.06079996949448674</v>
       </c>
       <c r="F20">
-        <v>4.217326008204566</v>
+        <v>5.1374121566908</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.762416475035792</v>
+        <v>3.376409139839751</v>
       </c>
       <c r="J20">
-        <v>0.09029569332886211</v>
+        <v>0.1778290364560462</v>
       </c>
       <c r="K20">
-        <v>1.307664294708729</v>
+        <v>1.072824126505765</v>
       </c>
       <c r="L20">
-        <v>0.1810547177753108</v>
+        <v>0.328446136368818</v>
       </c>
       <c r="M20">
-        <v>0.2493272609710573</v>
+        <v>0.3175140239947751</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.29590886328026</v>
+        <v>1.190785645304402</v>
       </c>
       <c r="C21">
-        <v>0.2514226102150303</v>
+        <v>0.09635575074528901</v>
       </c>
       <c r="D21">
-        <v>0.008107961341604408</v>
+        <v>0.002423426506801718</v>
       </c>
       <c r="E21">
-        <v>0.01829253235405748</v>
+        <v>0.06057358542413471</v>
       </c>
       <c r="F21">
-        <v>4.498083859617708</v>
+        <v>5.203397684530273</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.927549972553706</v>
+        <v>3.417380256792683</v>
       </c>
       <c r="J21">
-        <v>0.0912132412756641</v>
+        <v>0.1779948573323615</v>
       </c>
       <c r="K21">
-        <v>1.476506442340138</v>
+        <v>1.104926165566752</v>
       </c>
       <c r="L21">
-        <v>0.1953240068499085</v>
+        <v>0.3298429350771457</v>
       </c>
       <c r="M21">
-        <v>0.277460032868639</v>
+        <v>0.3216733585956248</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.392255635254344</v>
+        <v>1.207151905424809</v>
       </c>
       <c r="C22">
-        <v>0.2718581304815473</v>
+        <v>0.1013328813216958</v>
       </c>
       <c r="D22">
-        <v>0.008341339162068806</v>
+        <v>0.002467887378369227</v>
       </c>
       <c r="E22">
-        <v>0.01834471047065733</v>
+        <v>0.06043590893850581</v>
       </c>
       <c r="F22">
-        <v>4.686936259633626</v>
+        <v>5.247600868285502</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,19 +1382,19 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.03866477975123</v>
+        <v>3.444753121512449</v>
       </c>
       <c r="J22">
-        <v>0.09185196311925736</v>
+        <v>0.1781158175843984</v>
       </c>
       <c r="K22">
-        <v>1.589406233404759</v>
+        <v>1.126529541852051</v>
       </c>
       <c r="L22">
-        <v>0.2049468938663779</v>
+        <v>0.3308734838416285</v>
       </c>
       <c r="M22">
-        <v>0.2963176300412798</v>
+        <v>0.3245493689795325</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.340616171832238</v>
+        <v>1.198355958633414</v>
       </c>
       <c r="C23">
-        <v>0.2609060347102741</v>
+        <v>0.09867268918034711</v>
       </c>
       <c r="D23">
-        <v>0.008216779927071372</v>
+        <v>0.002443900876363259</v>
       </c>
       <c r="E23">
-        <v>0.01831566423776465</v>
+        <v>0.06050845172588559</v>
       </c>
       <c r="F23">
-        <v>4.585618249751661</v>
+        <v>5.223910129757769</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,19 +1429,19 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.979048949022825</v>
+        <v>3.430089135840873</v>
       </c>
       <c r="J23">
-        <v>0.09150733486582396</v>
+        <v>0.1780501079314831</v>
       </c>
       <c r="K23">
-        <v>1.528897363897244</v>
+        <v>1.114942445047717</v>
       </c>
       <c r="L23">
-        <v>0.1997821576226784</v>
+        <v>0.3303127130674852</v>
       </c>
       <c r="M23">
-        <v>0.2862068128248154</v>
+        <v>0.3229999834913428</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.149548448479692</v>
+        <v>1.166383157913941</v>
       </c>
       <c r="C24">
-        <v>0.2203554612351581</v>
+        <v>0.08868077164811439</v>
       </c>
       <c r="D24">
-        <v>0.007744152646367297</v>
+        <v>0.002358697552026001</v>
       </c>
       <c r="E24">
-        <v>0.01823147812548953</v>
+        <v>0.06080384376486503</v>
       </c>
       <c r="F24">
-        <v>4.212820510381022</v>
+        <v>5.136351843107178</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,19 +1476,19 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.759767064642134</v>
+        <v>3.375749536462195</v>
       </c>
       <c r="J24">
-        <v>0.0902813220095311</v>
+        <v>0.1778265388683451</v>
       </c>
       <c r="K24">
-        <v>1.304943744242792</v>
+        <v>1.072309955066657</v>
       </c>
       <c r="L24">
-        <v>0.1808261581413575</v>
+        <v>0.3284252968960715</v>
       </c>
       <c r="M24">
-        <v>0.248874747628431</v>
+        <v>0.3174487076749735</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.951512294180958</v>
+        <v>1.134766212050465</v>
       </c>
       <c r="C25">
-        <v>0.1782131039206121</v>
+        <v>0.07807777417028205</v>
       </c>
       <c r="D25">
-        <v>0.007227335874576468</v>
+        <v>0.002278833049848217</v>
       </c>
       <c r="E25">
-        <v>0.01819298263799318</v>
+        <v>0.06116688177914398</v>
       </c>
       <c r="F25">
-        <v>3.830614423563247</v>
+        <v>5.046528571265895</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.535093088281798</v>
+        <v>3.319688466478866</v>
       </c>
       <c r="J25">
-        <v>0.0891119003048324</v>
+        <v>0.1776395019331325</v>
       </c>
       <c r="K25">
-        <v>1.072603632933095</v>
+        <v>1.029000119570213</v>
       </c>
       <c r="L25">
-        <v>0.1615026614874253</v>
+        <v>0.3268964371138026</v>
       </c>
       <c r="M25">
-        <v>0.2103467777554968</v>
+        <v>0.3121395989906439</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_28/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.113956600348445</v>
+        <v>0.811206786796248</v>
       </c>
       <c r="C2">
-        <v>0.07041660960562979</v>
+        <v>0.1482109611410038</v>
       </c>
       <c r="D2">
-        <v>0.002230355565169262</v>
+        <v>0.006836423753101784</v>
       </c>
       <c r="E2">
-        <v>0.06147272907012846</v>
+        <v>0.01820715066127532</v>
       </c>
       <c r="F2">
-        <v>4.984343643786985</v>
+        <v>3.563211219976338</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,19 +442,19 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>3.280589368861371</v>
+        <v>2.378013083689623</v>
       </c>
       <c r="J2">
-        <v>0.1775483532458431</v>
+        <v>0.08836777924847894</v>
       </c>
       <c r="K2">
-        <v>0.9994063224192757</v>
+        <v>0.9077420779219096</v>
       </c>
       <c r="L2">
-        <v>0.3262083266678957</v>
+        <v>0.1480885365343525</v>
       </c>
       <c r="M2">
-        <v>0.3088152948878857</v>
+        <v>0.1831921978197322</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.1013956312689</v>
+        <v>0.7189302984835706</v>
       </c>
       <c r="C3">
-        <v>0.06531331347655112</v>
+        <v>0.1283672673337293</v>
       </c>
       <c r="D3">
-        <v>0.002203931867057918</v>
+        <v>0.006563240875506082</v>
       </c>
       <c r="E3">
-        <v>0.0617042280321658</v>
+        <v>0.01824222240819084</v>
       </c>
       <c r="F3">
-        <v>4.944654813428286</v>
+        <v>3.389357402522208</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,19 +489,19 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3.255442672115777</v>
+        <v>2.27594825214247</v>
       </c>
       <c r="J3">
-        <v>0.1775156476802202</v>
+        <v>0.08792990367837561</v>
       </c>
       <c r="K3">
-        <v>0.9807796220941611</v>
+        <v>0.7991291568771999</v>
       </c>
       <c r="L3">
-        <v>0.3260158177424373</v>
+        <v>0.1394380547971537</v>
       </c>
       <c r="M3">
-        <v>0.3069278121838224</v>
+        <v>0.1654215684863551</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.094444579545666</v>
+        <v>0.6634727544465022</v>
       </c>
       <c r="C4">
-        <v>0.06222300632268229</v>
+        <v>0.1163795804509391</v>
       </c>
       <c r="D4">
-        <v>0.00219087695088227</v>
+        <v>0.006390934896842282</v>
       </c>
       <c r="E4">
-        <v>0.0618583785675364</v>
+        <v>0.01827601981508264</v>
       </c>
       <c r="F4">
-        <v>4.921493858767235</v>
+        <v>3.285835849696596</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,19 +536,19 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>3.240666928315861</v>
+        <v>2.215202059036216</v>
       </c>
       <c r="J4">
-        <v>0.1775099148170582</v>
+        <v>0.08769186207342194</v>
       </c>
       <c r="K4">
-        <v>0.9700475144179279</v>
+        <v>0.7337525362870849</v>
       </c>
       <c r="L4">
-        <v>0.3260330249507106</v>
+        <v>0.1343239176132869</v>
       </c>
       <c r="M4">
-        <v>0.3059494516714132</v>
+        <v>0.1547852671879184</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.091803706211067</v>
+        <v>0.6411500614171075</v>
       </c>
       <c r="C5">
-        <v>0.0609744624101296</v>
+        <v>0.1115377994752436</v>
       </c>
       <c r="D5">
-        <v>0.002186354025436543</v>
+        <v>0.006319504459721514</v>
       </c>
       <c r="E5">
-        <v>0.06192422509731399</v>
+        <v>0.01829283653091096</v>
       </c>
       <c r="F5">
-        <v>4.912359305782971</v>
+        <v>3.244405200552791</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,19 +583,19 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3.234812649725157</v>
+        <v>2.190897561610839</v>
       </c>
       <c r="J5">
-        <v>0.177511189770005</v>
+        <v>0.08760233971945297</v>
       </c>
       <c r="K5">
-        <v>0.9658514350865914</v>
+        <v>0.7074104654869728</v>
       </c>
       <c r="L5">
-        <v>0.3260741512716265</v>
+        <v>0.1322867640198098</v>
       </c>
       <c r="M5">
-        <v>0.3055962387204367</v>
+        <v>0.1505150016892678</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.091376779643269</v>
+        <v>0.6374594031509275</v>
       </c>
       <c r="C6">
-        <v>0.06076779190254911</v>
+        <v>0.1107362703737209</v>
       </c>
       <c r="D6">
-        <v>0.002185651141331846</v>
+        <v>0.006307568377668105</v>
       </c>
       <c r="E6">
-        <v>0.0619353420724349</v>
+        <v>0.0182958116933829</v>
       </c>
       <c r="F6">
-        <v>4.910860862385761</v>
+        <v>3.237569722068955</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,19 +630,19 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>3.233850631598102</v>
+        <v>2.18688806964164</v>
       </c>
       <c r="J6">
-        <v>0.1775116196713356</v>
+        <v>0.0875879189603026</v>
       </c>
       <c r="K6">
-        <v>0.9651653941049716</v>
+        <v>0.7030536164380834</v>
       </c>
       <c r="L6">
-        <v>0.3260830425987322</v>
+        <v>0.1319512529002438</v>
       </c>
       <c r="M6">
-        <v>0.305540336852939</v>
+        <v>0.1498096592147213</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.094408187112862</v>
+        <v>0.6631706144948737</v>
       </c>
       <c r="C7">
-        <v>0.06220612445582674</v>
+        <v>0.1163141149330755</v>
       </c>
       <c r="D7">
-        <v>0.002190812725451963</v>
+        <v>0.006389976558645927</v>
       </c>
       <c r="E7">
-        <v>0.06185925432052652</v>
+        <v>0.01827623433581005</v>
       </c>
       <c r="F7">
-        <v>4.921369437341411</v>
+        <v>3.285274114779895</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,19 +677,19 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>3.240587299636843</v>
+        <v>2.214872500162642</v>
       </c>
       <c r="J7">
-        <v>0.1775099173859527</v>
+        <v>0.08769062479238166</v>
       </c>
       <c r="K7">
-        <v>0.9699902064083687</v>
+        <v>0.7333961043569843</v>
       </c>
       <c r="L7">
-        <v>0.3260334413811279</v>
+        <v>0.134296257409531</v>
       </c>
       <c r="M7">
-        <v>0.3059445038861561</v>
+        <v>0.1547274236928544</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.109467693689993</v>
+        <v>0.7791249435765621</v>
       </c>
       <c r="C8">
-        <v>0.06864799846519531</v>
+        <v>0.1413242821033691</v>
       </c>
       <c r="D8">
-        <v>0.002220586903620259</v>
+        <v>0.006743137463679716</v>
       </c>
       <c r="E8">
-        <v>0.06155006284905618</v>
+        <v>0.01821667306630292</v>
       </c>
       <c r="F8">
-        <v>4.970408120037916</v>
+        <v>3.502562202834298</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3.27178080248575</v>
+        <v>2.342401504756751</v>
       </c>
       <c r="J8">
-        <v>0.1775341001088471</v>
+        <v>0.08821023763282199</v>
       </c>
       <c r="K8">
-        <v>0.9928376259280469</v>
+        <v>0.8700009521689083</v>
       </c>
       <c r="L8">
-        <v>0.3261138833635613</v>
+        <v>0.1450632098447571</v>
       </c>
       <c r="M8">
-        <v>0.3081270573527988</v>
+        <v>0.1770046873508981</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.145032888777536</v>
+        <v>1.017276325472352</v>
       </c>
       <c r="C9">
-        <v>0.08162646807384988</v>
+        <v>0.1922276015188089</v>
       </c>
       <c r="D9">
-        <v>0.002304129705258617</v>
+        <v>0.007402775919402416</v>
       </c>
       <c r="E9">
-        <v>0.06103862800945858</v>
+        <v>0.01819919355247279</v>
       </c>
       <c r="F9">
-        <v>5.076170379350856</v>
+        <v>3.956988919300755</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,19 +771,19 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.33823325654933</v>
+        <v>2.609362216248599</v>
       </c>
       <c r="J9">
-        <v>0.1776952742086131</v>
+        <v>0.08948673582957767</v>
       </c>
       <c r="K9">
-        <v>1.043232231780621</v>
+        <v>1.14979506249108</v>
       </c>
       <c r="L9">
-        <v>0.327343571386649</v>
+        <v>0.1678758491307022</v>
       </c>
       <c r="M9">
-        <v>0.3138372194715515</v>
+        <v>0.2231187370994441</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.174835432528766</v>
+        <v>1.200701629091498</v>
       </c>
       <c r="C10">
-        <v>0.09137883455935025</v>
+        <v>0.2312183016201175</v>
       </c>
       <c r="D10">
-        <v>0.002380874737918148</v>
+        <v>0.007872755070195581</v>
       </c>
       <c r="E10">
-        <v>0.060720188559511</v>
+        <v>0.01825008217110735</v>
       </c>
       <c r="F10">
-        <v>5.159752352218788</v>
+        <v>4.312280651063702</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.390296884204375</v>
+        <v>2.818258046324814</v>
       </c>
       <c r="J10">
-        <v>0.1778829628794441</v>
+        <v>0.09060130169156722</v>
       </c>
       <c r="K10">
-        <v>1.083670504081027</v>
+        <v>1.364915393711073</v>
       </c>
       <c r="L10">
-        <v>0.3288977550280023</v>
+        <v>0.185875061579523</v>
       </c>
       <c r="M10">
-        <v>0.3189020754154193</v>
+        <v>0.2588560993000328</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.189190207051666</v>
+        <v>1.286451455336703</v>
       </c>
       <c r="C11">
-        <v>0.09586397661169599</v>
+        <v>0.2494162176818691</v>
       </c>
       <c r="D11">
-        <v>0.002419133039365917</v>
+        <v>0.008084816329551714</v>
       </c>
       <c r="E11">
-        <v>0.0605876548239106</v>
+        <v>0.01828789034258982</v>
       </c>
       <c r="F11">
-        <v>5.199059108563858</v>
+        <v>4.47958936062588</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.414690671700527</v>
+        <v>2.916669933536568</v>
       </c>
       <c r="J11">
-        <v>0.1779833785011462</v>
+        <v>0.09115155962660282</v>
       </c>
       <c r="K11">
-        <v>1.102809689351176</v>
+        <v>1.465422940002838</v>
       </c>
       <c r="L11">
-        <v>0.3297455607448256</v>
+        <v>0.1943825848247798</v>
       </c>
       <c r="M11">
-        <v>0.3213946448100273</v>
+        <v>0.2756105783456775</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.194740505880844</v>
+        <v>1.319297933430278</v>
       </c>
       <c r="C12">
-        <v>0.09756948384924158</v>
+        <v>0.2563841894087204</v>
       </c>
       <c r="D12">
-        <v>0.002434102115730141</v>
+        <v>0.008165010204232104</v>
       </c>
       <c r="E12">
-        <v>0.06053923125739669</v>
+        <v>0.01830439307635601</v>
       </c>
       <c r="F12">
-        <v>5.214128627864511</v>
+        <v>4.543856640192843</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.424030286818606</v>
+        <v>2.954478630812019</v>
       </c>
       <c r="J12">
-        <v>0.1780235633239222</v>
+        <v>0.0913665895843998</v>
       </c>
       <c r="K12">
-        <v>1.110164144120859</v>
+        <v>1.503915912320508</v>
       </c>
       <c r="L12">
-        <v>0.3300867968581258</v>
+        <v>0.1976547442523966</v>
       </c>
       <c r="M12">
-        <v>0.322365577454228</v>
+        <v>0.2820351887979555</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.193540062554632</v>
+        <v>1.312206454350815</v>
       </c>
       <c r="C13">
-        <v>0.09720185624885858</v>
+        <v>0.2548799157313795</v>
       </c>
       <c r="D13">
-        <v>0.002430856838955719</v>
+        <v>0.008147741414735066</v>
       </c>
       <c r="E13">
-        <v>0.06054958181336545</v>
+        <v>0.0183007403735882</v>
       </c>
       <c r="F13">
-        <v>5.210874911383144</v>
+        <v>4.529973419830498</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.422014285028951</v>
+        <v>2.946310790336881</v>
       </c>
       <c r="J13">
-        <v>0.1780148127925472</v>
+        <v>0.09131997537827985</v>
       </c>
       <c r="K13">
-        <v>1.108575479084521</v>
+        <v>1.495605619311362</v>
       </c>
       <c r="L13">
-        <v>0.3300124084665299</v>
+        <v>0.1969477002265876</v>
       </c>
       <c r="M13">
-        <v>0.3221552676104267</v>
+        <v>0.2806478285670977</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.189644540790596</v>
+        <v>1.289145980608453</v>
       </c>
       <c r="C14">
-        <v>0.09600414738216045</v>
+        <v>0.2499878730303351</v>
       </c>
       <c r="D14">
-        <v>0.002420354903135191</v>
+        <v>0.008091415237251098</v>
       </c>
       <c r="E14">
-        <v>0.06058363568078295</v>
+        <v>0.01828920375111043</v>
       </c>
       <c r="F14">
-        <v>5.200295180442822</v>
+        <v>4.48485783924329</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.415456998001147</v>
+        <v>2.919769272253987</v>
       </c>
       <c r="J14">
-        <v>0.1779866412631108</v>
+        <v>0.09116911412926854</v>
       </c>
       <c r="K14">
-        <v>1.103412603501454</v>
+        <v>1.468580785532794</v>
       </c>
       <c r="L14">
-        <v>0.3297732301177803</v>
+        <v>0.19465074645084</v>
       </c>
       <c r="M14">
-        <v>0.3214739822325683</v>
+        <v>0.276137478615631</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.18727332067678</v>
+        <v>1.275070941467163</v>
       </c>
       <c r="C15">
-        <v>0.09527144046930403</v>
+        <v>0.2470016912148196</v>
       </c>
       <c r="D15">
-        <v>0.002413984876394437</v>
+        <v>0.008056904132319076</v>
       </c>
       <c r="E15">
-        <v>0.06060472414616047</v>
+        <v>0.01828242433245908</v>
       </c>
       <c r="F15">
-        <v>5.193838873811188</v>
+        <v>4.457344832104866</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.411453786569922</v>
+        <v>2.90358418669355</v>
       </c>
       <c r="J15">
-        <v>0.1779696665602089</v>
+        <v>0.09107758831271084</v>
       </c>
       <c r="K15">
-        <v>1.100264107582774</v>
+        <v>1.45208531453693</v>
       </c>
       <c r="L15">
-        <v>0.3296293542118462</v>
+        <v>0.1932505222934111</v>
       </c>
       <c r="M15">
-        <v>0.321060196272974</v>
+        <v>0.2733854520355976</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.173913342438738</v>
+        <v>1.19514770348809</v>
       </c>
       <c r="C16">
-        <v>0.09108670694753584</v>
+        <v>0.2300391752454942</v>
       </c>
       <c r="D16">
-        <v>0.00237844183060254</v>
+        <v>0.007858872999113586</v>
       </c>
       <c r="E16">
-        <v>0.06072909726295528</v>
+        <v>0.01824791272015958</v>
       </c>
       <c r="F16">
-        <v>5.157209430303482</v>
+        <v>4.301468824098492</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.388716988366099</v>
+        <v>2.811899328134984</v>
       </c>
       <c r="J16">
-        <v>0.1778767028196135</v>
+        <v>0.09056624790623147</v>
       </c>
       <c r="K16">
-        <v>1.082434670575651</v>
+        <v>1.358404616352402</v>
       </c>
       <c r="L16">
-        <v>0.3288451773459187</v>
+        <v>0.1853258879956527</v>
       </c>
       <c r="M16">
-        <v>0.3187429688033312</v>
+        <v>0.257771873298811</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.165921519225549</v>
+        <v>1.146737904168589</v>
       </c>
       <c r="C17">
-        <v>0.08853204357779987</v>
+        <v>0.219758421660444</v>
       </c>
       <c r="D17">
-        <v>0.002357494634258828</v>
+        <v>0.00773703662991565</v>
       </c>
       <c r="E17">
-        <v>0.06080854713328776</v>
+        <v>0.01823054781928501</v>
       </c>
       <c r="F17">
-        <v>5.135067642617258</v>
+        <v>4.207363757614445</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.374950598697595</v>
+        <v>2.756558305267063</v>
       </c>
       <c r="J17">
-        <v>0.177823521697352</v>
+        <v>0.09026393263210508</v>
       </c>
       <c r="K17">
-        <v>1.071687293696556</v>
+        <v>1.301648292531922</v>
       </c>
       <c r="L17">
-        <v>0.3284001320821943</v>
+        <v>0.1805493625789723</v>
       </c>
       <c r="M17">
-        <v>0.3173696706694251</v>
+        <v>0.2483266470515986</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.161399905892836</v>
+        <v>1.119108369273704</v>
       </c>
       <c r="C18">
-        <v>0.08706725220160649</v>
+        <v>0.2138878887561049</v>
       </c>
       <c r="D18">
-        <v>0.002345761342590791</v>
+        <v>0.007666786777377865</v>
       </c>
       <c r="E18">
-        <v>0.06085540527233047</v>
+        <v>0.01822193455824106</v>
       </c>
       <c r="F18">
-        <v>5.122453204132142</v>
+        <v>4.153765967009747</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.367099334348893</v>
+        <v>2.725042510349695</v>
       </c>
       <c r="J18">
-        <v>0.1777943486420632</v>
+        <v>0.09009408970912602</v>
       </c>
       <c r="K18">
-        <v>1.065575682862942</v>
+        <v>1.269249404084974</v>
       </c>
       <c r="L18">
-        <v>0.3281574098761766</v>
+        <v>0.1778318129835483</v>
       </c>
       <c r="M18">
-        <v>0.3165975358548607</v>
+        <v>0.2429402596170078</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.159881865651442</v>
+        <v>1.109789085995175</v>
       </c>
       <c r="C19">
-        <v>0.08657208402692618</v>
+        <v>0.2119072545309422</v>
       </c>
       <c r="D19">
-        <v>0.002341842742549005</v>
+        <v>0.007642967755623786</v>
       </c>
       <c r="E19">
-        <v>0.06087147023629136</v>
+        <v>0.0182192521211979</v>
       </c>
       <c r="F19">
-        <v>5.118202938131418</v>
+        <v>4.135706816904246</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.364452499339222</v>
+        <v>2.714424279242095</v>
       </c>
       <c r="J19">
-        <v>0.1777847143031615</v>
+        <v>0.09003726502785625</v>
       </c>
       <c r="K19">
-        <v>1.063518420578418</v>
+        <v>1.258320417269346</v>
       </c>
       <c r="L19">
-        <v>0.3280775067786763</v>
+        <v>0.176916679770116</v>
       </c>
       <c r="M19">
-        <v>0.3163391547339671</v>
+        <v>0.2411242196409908</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.16676449435343</v>
+        <v>1.15186871272391</v>
       </c>
       <c r="C20">
-        <v>0.08880351696581101</v>
+        <v>0.2208483348044581</v>
       </c>
       <c r="D20">
-        <v>0.002359691898487171</v>
+        <v>0.00775002325101859</v>
       </c>
       <c r="E20">
-        <v>0.06079996949448674</v>
+        <v>0.01823225354639124</v>
       </c>
       <c r="F20">
-        <v>5.1374121566908</v>
+        <v>4.217326008204623</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.376409139839751</v>
+        <v>2.76241647503582</v>
       </c>
       <c r="J20">
-        <v>0.1778290364560462</v>
+        <v>0.09029569332887277</v>
       </c>
       <c r="K20">
-        <v>1.072824126505765</v>
+        <v>1.307664294708871</v>
       </c>
       <c r="L20">
-        <v>0.328446136368818</v>
+        <v>0.18105471777519</v>
       </c>
       <c r="M20">
-        <v>0.3175140239947751</v>
+        <v>0.2493272609710608</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.190785645304402</v>
+        <v>1.295908863279976</v>
       </c>
       <c r="C21">
-        <v>0.09635575074528901</v>
+        <v>0.2514226102143766</v>
       </c>
       <c r="D21">
-        <v>0.002423426506801718</v>
+        <v>0.008107961341538683</v>
       </c>
       <c r="E21">
-        <v>0.06057358542413471</v>
+        <v>0.01829253235400063</v>
       </c>
       <c r="F21">
-        <v>5.203397684530273</v>
+        <v>4.498083859617765</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.417380256792683</v>
+        <v>2.927549972553706</v>
       </c>
       <c r="J21">
-        <v>0.1779948573323615</v>
+        <v>0.0912132412753941</v>
       </c>
       <c r="K21">
-        <v>1.104926165566752</v>
+        <v>1.476506442340252</v>
       </c>
       <c r="L21">
-        <v>0.3298429350771457</v>
+        <v>0.19532400684988</v>
       </c>
       <c r="M21">
-        <v>0.3216733585956248</v>
+        <v>0.277460032868639</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.207151905424809</v>
+        <v>1.392255635254429</v>
       </c>
       <c r="C22">
-        <v>0.1013328813216958</v>
+        <v>0.271858130481462</v>
       </c>
       <c r="D22">
-        <v>0.002467887378369227</v>
+        <v>0.008341339162022621</v>
       </c>
       <c r="E22">
-        <v>0.06043590893850581</v>
+        <v>0.01834471047070796</v>
       </c>
       <c r="F22">
-        <v>5.247600868285502</v>
+        <v>4.686936259633654</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,19 +1382,19 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.444753121512449</v>
+        <v>3.038664779751258</v>
       </c>
       <c r="J22">
-        <v>0.1781158175843984</v>
+        <v>0.09185196311920407</v>
       </c>
       <c r="K22">
-        <v>1.126529541852051</v>
+        <v>1.589406233404873</v>
       </c>
       <c r="L22">
-        <v>0.3308734838416285</v>
+        <v>0.2049468938664205</v>
       </c>
       <c r="M22">
-        <v>0.3245493689795325</v>
+        <v>0.2963176300412869</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.198355958633414</v>
+        <v>1.340616171832067</v>
       </c>
       <c r="C23">
-        <v>0.09867268918034711</v>
+        <v>0.2609060347105299</v>
       </c>
       <c r="D23">
-        <v>0.002443900876363259</v>
+        <v>0.008216779926911499</v>
       </c>
       <c r="E23">
-        <v>0.06050845172588559</v>
+        <v>0.01831566423775932</v>
       </c>
       <c r="F23">
-        <v>5.223910129757769</v>
+        <v>4.585618249751661</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,19 +1429,19 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.430089135840873</v>
+        <v>2.979048949022825</v>
       </c>
       <c r="J23">
-        <v>0.1780501079314831</v>
+        <v>0.09150733486592699</v>
       </c>
       <c r="K23">
-        <v>1.114942445047717</v>
+        <v>1.528897363897102</v>
       </c>
       <c r="L23">
-        <v>0.3303127130674852</v>
+        <v>0.1997821576226499</v>
       </c>
       <c r="M23">
-        <v>0.3229999834913428</v>
+        <v>0.2862068128248154</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.166383157913941</v>
+        <v>1.149548448479692</v>
       </c>
       <c r="C24">
-        <v>0.08868077164811439</v>
+        <v>0.2203554612353855</v>
       </c>
       <c r="D24">
-        <v>0.002358697552026001</v>
+        <v>0.007744152646735003</v>
       </c>
       <c r="E24">
-        <v>0.06080384376486503</v>
+        <v>0.01823147812551706</v>
       </c>
       <c r="F24">
-        <v>5.136351843107178</v>
+        <v>4.212820510381022</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,19 +1476,19 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.375749536462195</v>
+        <v>2.759767064642148</v>
       </c>
       <c r="J24">
-        <v>0.1778265388683451</v>
+        <v>0.09028132200963412</v>
       </c>
       <c r="K24">
-        <v>1.072309955066657</v>
+        <v>1.304943744242792</v>
       </c>
       <c r="L24">
-        <v>0.3284252968960715</v>
+        <v>0.180826158141322</v>
       </c>
       <c r="M24">
-        <v>0.3174487076749735</v>
+        <v>0.2488747476284239</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.134766212050465</v>
+        <v>0.9515122941809011</v>
       </c>
       <c r="C25">
-        <v>0.07807777417028205</v>
+        <v>0.1782131039203705</v>
       </c>
       <c r="D25">
-        <v>0.002278833049848217</v>
+        <v>0.007227335874569363</v>
       </c>
       <c r="E25">
-        <v>0.06116688177914398</v>
+        <v>0.01819298263799141</v>
       </c>
       <c r="F25">
-        <v>5.046528571265895</v>
+        <v>3.830614423563247</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.319688466478866</v>
+        <v>2.535093088281783</v>
       </c>
       <c r="J25">
-        <v>0.1776395019331325</v>
+        <v>0.08911190030483951</v>
       </c>
       <c r="K25">
-        <v>1.029000119570213</v>
+        <v>1.072603632933266</v>
       </c>
       <c r="L25">
-        <v>0.3268964371138026</v>
+        <v>0.1615026614873614</v>
       </c>
       <c r="M25">
-        <v>0.3121395989906439</v>
+        <v>0.2103467777554968</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_28/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.811206786796248</v>
+        <v>2.460282888696895</v>
       </c>
       <c r="C2">
-        <v>0.1482109611410038</v>
+        <v>0.7015360830096427</v>
       </c>
       <c r="D2">
-        <v>0.006836423753101784</v>
+        <v>0.1374031047835018</v>
       </c>
       <c r="E2">
-        <v>0.01820715066127532</v>
+        <v>0.09614646257829662</v>
       </c>
       <c r="F2">
-        <v>3.563211219976338</v>
+        <v>0.6872998310771408</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0003559543907096785</v>
       </c>
       <c r="I2">
-        <v>2.378013083689623</v>
+        <v>0.0004434687566612361</v>
       </c>
       <c r="J2">
-        <v>0.08836777924847894</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>0.9077420779219096</v>
+        <v>0.2435948487244595</v>
       </c>
       <c r="L2">
-        <v>0.1480885365343525</v>
+        <v>0.0991579315805069</v>
       </c>
       <c r="M2">
-        <v>0.1831921978197322</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.7176155488497571</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.531577736449492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7189302984835706</v>
+        <v>2.14484612839675</v>
       </c>
       <c r="C3">
-        <v>0.1283672673337293</v>
+        <v>0.6147911589398234</v>
       </c>
       <c r="D3">
-        <v>0.006563240875506082</v>
+        <v>0.1244946057474152</v>
       </c>
       <c r="E3">
-        <v>0.01824222240819084</v>
+        <v>0.08896633053189973</v>
       </c>
       <c r="F3">
-        <v>3.389357402522208</v>
+        <v>0.6581215543968</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.001113845582549011</v>
       </c>
       <c r="I3">
-        <v>2.27594825214247</v>
+        <v>0.0006089408346205971</v>
       </c>
       <c r="J3">
-        <v>0.08792990367837561</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K3">
-        <v>0.7991291568771999</v>
+        <v>0.2520244696548577</v>
       </c>
       <c r="L3">
-        <v>0.1394380547971537</v>
+        <v>0.09310965532573334</v>
       </c>
       <c r="M3">
-        <v>0.1654215684863551</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.6260167432894832</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.485464398612223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6634727544465022</v>
+        <v>1.950774992070876</v>
       </c>
       <c r="C4">
-        <v>0.1163795804509391</v>
+        <v>0.5618726311714966</v>
       </c>
       <c r="D4">
-        <v>0.006390934896842282</v>
+        <v>0.1166159797294171</v>
       </c>
       <c r="E4">
-        <v>0.01827601981508264</v>
+        <v>0.08455017549232124</v>
       </c>
       <c r="F4">
-        <v>3.285835849696596</v>
+        <v>0.6408129725044347</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.001814609752218366</v>
       </c>
       <c r="I4">
-        <v>2.215202059036216</v>
+        <v>0.0009273416491684117</v>
       </c>
       <c r="J4">
-        <v>0.08769186207342194</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K4">
-        <v>0.7337525362870849</v>
+        <v>0.2575625419186398</v>
       </c>
       <c r="L4">
-        <v>0.1343239176132869</v>
+        <v>0.08935386076185381</v>
       </c>
       <c r="M4">
-        <v>0.1547852671879184</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.5698368896844457</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.458958368181271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6411500614171075</v>
+        <v>1.87140869223785</v>
       </c>
       <c r="C5">
-        <v>0.1115377994752436</v>
+        <v>0.5414140122965421</v>
       </c>
       <c r="D5">
-        <v>0.006319504459721514</v>
+        <v>0.113507036133413</v>
       </c>
       <c r="E5">
-        <v>0.01829283653091096</v>
+        <v>0.08275005286322568</v>
       </c>
       <c r="F5">
-        <v>3.244405200552791</v>
+        <v>0.633240827563526</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.002157640619270262</v>
       </c>
       <c r="I5">
-        <v>2.190897561610839</v>
+        <v>0.001178232286196401</v>
       </c>
       <c r="J5">
-        <v>0.08760233971945297</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K5">
-        <v>0.7074104654869728</v>
+        <v>0.2595738942591481</v>
       </c>
       <c r="L5">
-        <v>0.1322867640198098</v>
+        <v>0.08777554604209215</v>
       </c>
       <c r="M5">
-        <v>0.1505150016892678</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.5471989975657152</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.446662630001967</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6374594031509275</v>
+        <v>1.858012866321104</v>
       </c>
       <c r="C6">
-        <v>0.1107362703737209</v>
+        <v>0.5392819152955894</v>
       </c>
       <c r="D6">
-        <v>0.006307568377668105</v>
+        <v>0.1131028532736309</v>
       </c>
       <c r="E6">
-        <v>0.0182958116933829</v>
+        <v>0.08245365471411148</v>
       </c>
       <c r="F6">
-        <v>3.237569722068955</v>
+        <v>0.6311813040986465</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.002219385415946351</v>
       </c>
       <c r="I6">
-        <v>2.18688806964164</v>
+        <v>0.001315393353927163</v>
       </c>
       <c r="J6">
-        <v>0.0875879189603026</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K6">
-        <v>0.7030536164380834</v>
+        <v>0.2595071506905224</v>
       </c>
       <c r="L6">
-        <v>0.1319512529002438</v>
+        <v>0.08746823037153817</v>
       </c>
       <c r="M6">
-        <v>0.1498096592147213</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.5437410124777031</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.442294356287533</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6631706144948737</v>
+        <v>1.949128481977709</v>
       </c>
       <c r="C7">
-        <v>0.1163141149330755</v>
+        <v>0.5650469997698053</v>
       </c>
       <c r="D7">
-        <v>0.006389976558645927</v>
+        <v>0.1168787633676516</v>
       </c>
       <c r="E7">
-        <v>0.01827623433581005</v>
+        <v>0.08453354183392392</v>
       </c>
       <c r="F7">
-        <v>3.285274114779895</v>
+        <v>0.638497279964561</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.001822517337739082</v>
       </c>
       <c r="I7">
-        <v>2.214872500162642</v>
+        <v>0.001167207408746762</v>
       </c>
       <c r="J7">
-        <v>0.08769062479238166</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K7">
-        <v>0.7333961043569843</v>
+        <v>0.2564835601673838</v>
       </c>
       <c r="L7">
-        <v>0.134296257409531</v>
+        <v>0.08921130102563524</v>
       </c>
       <c r="M7">
-        <v>0.1547274236928544</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.5703539518155125</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.45237071897796</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7791249435765621</v>
+        <v>2.350821652017714</v>
       </c>
       <c r="C8">
-        <v>0.1413242821033691</v>
+        <v>0.6761580535047074</v>
       </c>
       <c r="D8">
-        <v>0.006743137463679716</v>
+        <v>0.1333472387922114</v>
       </c>
       <c r="E8">
-        <v>0.01821667306630292</v>
+        <v>0.09368312347980279</v>
       </c>
       <c r="F8">
-        <v>3.502562202834298</v>
+        <v>0.674187333403971</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0005690347831002196</v>
       </c>
       <c r="I8">
-        <v>2.342401504756751</v>
+        <v>0.00073516920109995</v>
       </c>
       <c r="J8">
-        <v>0.08821023763282199</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K8">
-        <v>0.8700009521689083</v>
+        <v>0.2449797318996829</v>
       </c>
       <c r="L8">
-        <v>0.1450632098447571</v>
+        <v>0.09692148710729853</v>
       </c>
       <c r="M8">
-        <v>0.1770046873508981</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.6871116723428941</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.506820293654243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.017276325472352</v>
+        <v>3.137039529718209</v>
       </c>
       <c r="C9">
-        <v>0.1922276015188089</v>
+        <v>0.8909204856974782</v>
       </c>
       <c r="D9">
-        <v>0.007402775919402416</v>
+        <v>0.1655239710184162</v>
       </c>
       <c r="E9">
-        <v>0.01819919355247279</v>
+        <v>0.1115877323127599</v>
       </c>
       <c r="F9">
-        <v>3.956988919300755</v>
+        <v>0.753336015787518</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0001144537441515325</v>
       </c>
       <c r="I9">
-        <v>2.609362216248599</v>
+        <v>0.001397742681644942</v>
       </c>
       <c r="J9">
-        <v>0.08948673582957767</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K9">
-        <v>1.14979506249108</v>
+        <v>0.2274060835460752</v>
       </c>
       <c r="L9">
-        <v>0.1678758491307022</v>
+        <v>0.1119586246353634</v>
       </c>
       <c r="M9">
-        <v>0.2231187370994441</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.9153408841374713</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.640539327643239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.200701629091498</v>
+        <v>3.720746237650587</v>
       </c>
       <c r="C10">
-        <v>0.2312183016201175</v>
+        <v>1.052103129525847</v>
       </c>
       <c r="D10">
-        <v>0.007872755070195581</v>
+        <v>0.1855891677967492</v>
       </c>
       <c r="E10">
-        <v>0.01825008217110735</v>
+        <v>0.1197966315041405</v>
       </c>
       <c r="F10">
-        <v>4.312280651063702</v>
+        <v>0.7997291434105307</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.001298000134949184</v>
       </c>
       <c r="I10">
-        <v>2.818258046324814</v>
+        <v>0.003310052720749468</v>
       </c>
       <c r="J10">
-        <v>0.09060130169156722</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K10">
-        <v>1.364915393711073</v>
+        <v>0.2126109124870936</v>
       </c>
       <c r="L10">
-        <v>0.185875061579523</v>
+        <v>0.1171221676012379</v>
       </c>
       <c r="M10">
-        <v>0.2588560993000328</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.072065606380463</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.717247526127011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.286451455336703</v>
+        <v>4.048406458219972</v>
       </c>
       <c r="C11">
-        <v>0.2494162176818691</v>
+        <v>1.124430450283455</v>
       </c>
       <c r="D11">
-        <v>0.008084816329551714</v>
+        <v>0.161274873320707</v>
       </c>
       <c r="E11">
-        <v>0.01828789034258982</v>
+        <v>0.08627643343169922</v>
       </c>
       <c r="F11">
-        <v>4.47958936062588</v>
+        <v>0.6974420138667128</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01988045039643538</v>
       </c>
       <c r="I11">
-        <v>2.916669933536568</v>
+        <v>0.004556328737278292</v>
       </c>
       <c r="J11">
-        <v>0.09115155962660282</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K11">
-        <v>1.465422940002838</v>
+        <v>0.1775545905948874</v>
       </c>
       <c r="L11">
-        <v>0.1943825848247798</v>
+        <v>0.0827515076412233</v>
       </c>
       <c r="M11">
-        <v>0.2756105783456775</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.039221555146149</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.497509902890016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.319297933430278</v>
+        <v>4.205328707873264</v>
       </c>
       <c r="C12">
-        <v>0.2563841894087204</v>
+        <v>1.145465727097076</v>
       </c>
       <c r="D12">
-        <v>0.008165010204232104</v>
+        <v>0.1378817756014996</v>
       </c>
       <c r="E12">
-        <v>0.01830439307635601</v>
+        <v>0.06443335490455304</v>
       </c>
       <c r="F12">
-        <v>4.543856640192843</v>
+        <v>0.6097237109797149</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05840851664331836</v>
       </c>
       <c r="I12">
-        <v>2.954478630812019</v>
+        <v>0.004754025706900755</v>
       </c>
       <c r="J12">
-        <v>0.0913665895843998</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>1.503915912320508</v>
+        <v>0.1556719965565438</v>
       </c>
       <c r="L12">
-        <v>0.1976547442523966</v>
+        <v>0.07027878186021214</v>
       </c>
       <c r="M12">
-        <v>0.2820351887979555</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.9775027095029571</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.315181027503854</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.312206454350815</v>
+        <v>4.237425317156124</v>
       </c>
       <c r="C13">
-        <v>0.2548799157313795</v>
+        <v>1.133524236125254</v>
       </c>
       <c r="D13">
-        <v>0.008147741414735066</v>
+        <v>0.1144447495402616</v>
       </c>
       <c r="E13">
-        <v>0.0183007403735882</v>
+        <v>0.0502984976953158</v>
       </c>
       <c r="F13">
-        <v>4.529973419830498</v>
+        <v>0.5247112336171043</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1138728730844036</v>
       </c>
       <c r="I13">
-        <v>2.946310790336881</v>
+        <v>0.004439906037532637</v>
       </c>
       <c r="J13">
-        <v>0.09131997537827985</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K13">
-        <v>1.495605619311362</v>
+        <v>0.1406923073657875</v>
       </c>
       <c r="L13">
-        <v>0.1969477002265876</v>
+        <v>0.07344141037338758</v>
       </c>
       <c r="M13">
-        <v>0.2806478285670977</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.8917996723465436</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.140638267549392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.289145980608453</v>
+        <v>4.203027895431376</v>
       </c>
       <c r="C14">
-        <v>0.2499878730303351</v>
+        <v>1.111360185434364</v>
       </c>
       <c r="D14">
-        <v>0.008091415237251098</v>
+        <v>0.09848590615219877</v>
       </c>
       <c r="E14">
-        <v>0.01828920375111043</v>
+        <v>0.0450116810060962</v>
       </c>
       <c r="F14">
-        <v>4.48485783924329</v>
+        <v>0.4671165972903069</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1629861670217281</v>
       </c>
       <c r="I14">
-        <v>2.919769272253987</v>
+        <v>0.004082899411984364</v>
       </c>
       <c r="J14">
-        <v>0.09116911412926854</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K14">
-        <v>1.468580785532794</v>
+        <v>0.1335663317743823</v>
       </c>
       <c r="L14">
-        <v>0.19465074645084</v>
+        <v>0.08487373892790018</v>
       </c>
       <c r="M14">
-        <v>0.276137478615631</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.8218825343549128</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.02281388888558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.275070941467163</v>
+        <v>4.167270167616039</v>
       </c>
       <c r="C15">
-        <v>0.2470016912148196</v>
+        <v>1.100431768616829</v>
       </c>
       <c r="D15">
-        <v>0.008056904132319076</v>
+        <v>0.09446549566925455</v>
       </c>
       <c r="E15">
-        <v>0.01828242433245908</v>
+        <v>0.04429851019865388</v>
       </c>
       <c r="F15">
-        <v>4.457344832104866</v>
+        <v>0.4525162071220947</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1753965652314804</v>
       </c>
       <c r="I15">
-        <v>2.90358418669355</v>
+        <v>0.004000385471352175</v>
       </c>
       <c r="J15">
-        <v>0.09107758831271084</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K15">
-        <v>1.45208531453693</v>
+        <v>0.1327260339719851</v>
       </c>
       <c r="L15">
-        <v>0.1932505222934111</v>
+        <v>0.08867279745850709</v>
       </c>
       <c r="M15">
-        <v>0.2733854520355976</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.8001426854847722</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.9929504040541701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.19514770348809</v>
+        <v>3.906370180276554</v>
       </c>
       <c r="C16">
-        <v>0.2300391752454942</v>
+        <v>1.035400837560587</v>
       </c>
       <c r="D16">
-        <v>0.007858872999113586</v>
+        <v>0.09136923742992309</v>
       </c>
       <c r="E16">
-        <v>0.01824791272015958</v>
+        <v>0.04399265218201054</v>
       </c>
       <c r="F16">
-        <v>4.301468824098492</v>
+        <v>0.4495255373632432</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1622072108283135</v>
       </c>
       <c r="I16">
-        <v>2.811899328134984</v>
+        <v>0.003234430814247347</v>
       </c>
       <c r="J16">
-        <v>0.09056624790623147</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K16">
-        <v>1.358404616352402</v>
+        <v>0.1409487633753415</v>
       </c>
       <c r="L16">
-        <v>0.1853258879956527</v>
+        <v>0.08557127906674822</v>
       </c>
       <c r="M16">
-        <v>0.257771873298811</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.7530372940459813</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.9922761162006282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.146737904168589</v>
+        <v>3.725175624324208</v>
       </c>
       <c r="C17">
-        <v>0.219758421660444</v>
+        <v>0.9975920334827606</v>
       </c>
       <c r="D17">
-        <v>0.00773703662991565</v>
+        <v>0.09721725213400845</v>
       </c>
       <c r="E17">
-        <v>0.01823054781928501</v>
+        <v>0.0457911462662226</v>
       </c>
       <c r="F17">
-        <v>4.207363757614445</v>
+        <v>0.4771745268737462</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1242259339810943</v>
       </c>
       <c r="I17">
-        <v>2.756558305267063</v>
+        <v>0.002893383588849829</v>
       </c>
       <c r="J17">
-        <v>0.09026393263210508</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K17">
-        <v>1.301648292531922</v>
+        <v>0.1508754967059422</v>
       </c>
       <c r="L17">
-        <v>0.1805493625789723</v>
+        <v>0.07563738737940895</v>
       </c>
       <c r="M17">
-        <v>0.2483266470515986</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.7536256704551505</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.053302141564927</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.119108369273704</v>
+        <v>3.592972469130416</v>
       </c>
       <c r="C18">
-        <v>0.2138878887561049</v>
+        <v>0.9756019285897821</v>
       </c>
       <c r="D18">
-        <v>0.007666786777377865</v>
+        <v>0.1122523014088372</v>
       </c>
       <c r="E18">
-        <v>0.01822193455824106</v>
+        <v>0.05363887475620022</v>
       </c>
       <c r="F18">
-        <v>4.153765967009747</v>
+        <v>0.5384884599034905</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07136859742032442</v>
       </c>
       <c r="I18">
-        <v>2.725042510349695</v>
+        <v>0.002542041189423472</v>
       </c>
       <c r="J18">
-        <v>0.09009408970912602</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K18">
-        <v>1.269249404084974</v>
+        <v>0.1653383104506272</v>
       </c>
       <c r="L18">
-        <v>0.1778318129835483</v>
+        <v>0.06708214965726</v>
       </c>
       <c r="M18">
-        <v>0.2429402596170078</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.7952813498646094</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.183586113984859</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.109789085995175</v>
+        <v>3.509427381083356</v>
       </c>
       <c r="C19">
-        <v>0.2119072545309422</v>
+        <v>0.9747076045734673</v>
       </c>
       <c r="D19">
-        <v>0.007642967755623786</v>
+        <v>0.1356783245381621</v>
       </c>
       <c r="E19">
-        <v>0.0182192521211979</v>
+        <v>0.0718324500363785</v>
       </c>
       <c r="F19">
-        <v>4.135706816904246</v>
+        <v>0.6239742828667261</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02625812088007251</v>
       </c>
       <c r="I19">
-        <v>2.714424279242095</v>
+        <v>0.002705179260830803</v>
       </c>
       <c r="J19">
-        <v>0.09003726502785625</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K19">
-        <v>1.258320417269346</v>
+        <v>0.1835389325695349</v>
       </c>
       <c r="L19">
-        <v>0.176916679770116</v>
+        <v>0.07265126867905725</v>
       </c>
       <c r="M19">
-        <v>0.2411242196409908</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.8699030064529865</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.35992719960305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.15186871272391</v>
+        <v>3.5658943737306</v>
       </c>
       <c r="C20">
-        <v>0.2208483348044581</v>
+        <v>1.020684946143831</v>
       </c>
       <c r="D20">
-        <v>0.00775002325101859</v>
+        <v>0.181090443351394</v>
       </c>
       <c r="E20">
-        <v>0.01823225354639124</v>
+        <v>0.1174562648754538</v>
       </c>
       <c r="F20">
-        <v>4.217326008204623</v>
+        <v>0.7798880420399712</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0008636350193977904</v>
       </c>
       <c r="I20">
-        <v>2.76241647503582</v>
+        <v>0.003428113442142333</v>
       </c>
       <c r="J20">
-        <v>0.09029569332887277</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K20">
-        <v>1.307664294708871</v>
+        <v>0.2129585265521001</v>
       </c>
       <c r="L20">
-        <v>0.18105471777519</v>
+        <v>0.1151633172983111</v>
       </c>
       <c r="M20">
-        <v>0.2493272609710608</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.032970051161605</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.675430806842598</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.295908863279976</v>
+        <v>4.003339621223517</v>
       </c>
       <c r="C21">
-        <v>0.2514226102143766</v>
+        <v>1.144312668946895</v>
       </c>
       <c r="D21">
-        <v>0.008107961341538683</v>
+        <v>0.2027221885599886</v>
       </c>
       <c r="E21">
-        <v>0.01829253235400063</v>
+        <v>0.1315055691625986</v>
       </c>
       <c r="F21">
-        <v>4.498083859617765</v>
+        <v>0.8406240334840049</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.002148117189590293</v>
       </c>
       <c r="I21">
-        <v>2.927549972553706</v>
+        <v>0.005274118507084147</v>
       </c>
       <c r="J21">
-        <v>0.0912132412753941</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K21">
-        <v>1.476506442340252</v>
+        <v>0.208401426298277</v>
       </c>
       <c r="L21">
-        <v>0.19532400684988</v>
+        <v>0.1279969852891867</v>
       </c>
       <c r="M21">
-        <v>0.277460032868639</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.171940343043659</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.788262379379233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.392255635254429</v>
+        <v>4.293784442360902</v>
       </c>
       <c r="C22">
-        <v>0.271858130481462</v>
+        <v>1.220683369133155</v>
       </c>
       <c r="D22">
-        <v>0.008341339162022621</v>
+        <v>0.2144677808948359</v>
       </c>
       <c r="E22">
-        <v>0.01834471047070796</v>
+        <v>0.1381538883955074</v>
       </c>
       <c r="F22">
-        <v>4.686936259633654</v>
+        <v>0.8767026326740393</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.003353834697339741</v>
       </c>
       <c r="I22">
-        <v>3.038664779751258</v>
+        <v>0.006492863743799759</v>
       </c>
       <c r="J22">
-        <v>0.09185196311920407</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K22">
-        <v>1.589406233404873</v>
+        <v>0.2054802813297947</v>
       </c>
       <c r="L22">
-        <v>0.2049468938664205</v>
+        <v>0.1336289796482859</v>
       </c>
       <c r="M22">
-        <v>0.2963176300412869</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.255746745885943</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.857782132699867</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.340616171832067</v>
+        <v>4.139461882725925</v>
       </c>
       <c r="C23">
-        <v>0.2609060347105299</v>
+        <v>1.17563023552367</v>
       </c>
       <c r="D23">
-        <v>0.008216779926911499</v>
+        <v>0.2078215827746561</v>
       </c>
       <c r="E23">
-        <v>0.01831566423775932</v>
+        <v>0.1345898418672355</v>
       </c>
       <c r="F23">
-        <v>4.585618249751661</v>
+        <v>0.8599374259665495</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.002682810730980312</v>
       </c>
       <c r="I23">
-        <v>2.979048949022825</v>
+        <v>0.00553950791633806</v>
       </c>
       <c r="J23">
-        <v>0.09150733486592699</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K23">
-        <v>1.528897363897102</v>
+        <v>0.2082180263340945</v>
       </c>
       <c r="L23">
-        <v>0.1997821576226499</v>
+        <v>0.1307626032236442</v>
       </c>
       <c r="M23">
-        <v>0.2862068128248154</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.209993935353637</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.827864145639296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.149548448479692</v>
+        <v>3.554286396108466</v>
       </c>
       <c r="C24">
-        <v>0.2203554612353855</v>
+        <v>1.012868021598109</v>
       </c>
       <c r="D24">
-        <v>0.007744152646735003</v>
+        <v>0.1834048139381679</v>
       </c>
       <c r="E24">
-        <v>0.01823147812551706</v>
+        <v>0.1211659162280867</v>
       </c>
       <c r="F24">
-        <v>4.212820510381022</v>
+        <v>0.794254165792097</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.000790592827199621</v>
       </c>
       <c r="I24">
-        <v>2.759767064642148</v>
+        <v>0.002974338343538996</v>
       </c>
       <c r="J24">
-        <v>0.09028132200963412</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K24">
-        <v>1.304943744242792</v>
+        <v>0.2176390981090393</v>
       </c>
       <c r="L24">
-        <v>0.180826158141322</v>
+        <v>0.1196823404280671</v>
       </c>
       <c r="M24">
-        <v>0.2488747476284239</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.038840774360622</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.708359068447379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9515122941809011</v>
+        <v>2.923457445319457</v>
       </c>
       <c r="C25">
-        <v>0.1782131039203705</v>
+        <v>0.8388084261293045</v>
       </c>
       <c r="D25">
-        <v>0.007227335874569363</v>
+        <v>0.1573235643263473</v>
       </c>
       <c r="E25">
-        <v>0.01819298263799141</v>
+        <v>0.1067582490233718</v>
       </c>
       <c r="F25">
-        <v>3.830614423563247</v>
+        <v>0.7273349438977306</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.380246628463922E-06</v>
       </c>
       <c r="I25">
-        <v>2.535093088281783</v>
+        <v>0.001395902738048349</v>
       </c>
       <c r="J25">
-        <v>0.08911190030483951</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K25">
-        <v>1.072603632933266</v>
+        <v>0.2298806088657557</v>
       </c>
       <c r="L25">
-        <v>0.1615026614873614</v>
+        <v>0.1077014419433659</v>
       </c>
       <c r="M25">
-        <v>0.2103467777554968</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.8549885156831678</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.5910373983547</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_28/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.460282888696895</v>
+        <v>2.462073892396859</v>
       </c>
       <c r="C2">
-        <v>0.7015360830096427</v>
+        <v>0.735659325003752</v>
       </c>
       <c r="D2">
-        <v>0.1374031047835018</v>
+        <v>0.1428044601558298</v>
       </c>
       <c r="E2">
-        <v>0.09614646257829662</v>
+        <v>0.09776868142818884</v>
       </c>
       <c r="F2">
-        <v>0.6872998310771408</v>
+        <v>0.6549997780762951</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0003559543907096785</v>
+        <v>0.0002426724917490297</v>
       </c>
       <c r="I2">
-        <v>0.0004434687566612361</v>
+        <v>0.0005944850161077042</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>0.2435948487244595</v>
+        <v>0.2211503538509767</v>
       </c>
       <c r="L2">
-        <v>0.0991579315805069</v>
+        <v>0.1255284399744738</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.05025242167256483</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.09928111011586083</v>
       </c>
       <c r="O2">
-        <v>0.7176155488497571</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.531577736449492</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.7281788828611724</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.433557113843506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.14484612839675</v>
+        <v>2.148649627571444</v>
       </c>
       <c r="C3">
-        <v>0.6147911589398234</v>
+        <v>0.638038450392429</v>
       </c>
       <c r="D3">
-        <v>0.1244946057474152</v>
+        <v>0.1292455804290285</v>
       </c>
       <c r="E3">
-        <v>0.08896633053189973</v>
+        <v>0.09073082488204776</v>
       </c>
       <c r="F3">
-        <v>0.6581215543968</v>
+        <v>0.6304566459471843</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.001113845582549011</v>
+        <v>0.0008727600975581007</v>
       </c>
       <c r="I3">
-        <v>0.0006089408346205971</v>
+        <v>0.0005245950667038812</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>0.2520244696548577</v>
+        <v>0.2305694457848553</v>
       </c>
       <c r="L3">
-        <v>0.09310965532573334</v>
+        <v>0.1315948261038393</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.05235347621353093</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.09372252978256768</v>
       </c>
       <c r="O3">
-        <v>0.6260167432894832</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.485464398612223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.6341657384351933</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.399795333940361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.950774992070876</v>
+        <v>1.95570697634659</v>
       </c>
       <c r="C4">
-        <v>0.5618726311714966</v>
+        <v>0.5786563884494171</v>
       </c>
       <c r="D4">
-        <v>0.1166159797294171</v>
+        <v>0.1209863979727785</v>
       </c>
       <c r="E4">
-        <v>0.08455017549232124</v>
+        <v>0.0864041904172197</v>
       </c>
       <c r="F4">
-        <v>0.6408129725044347</v>
+        <v>0.6158629676081588</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.001814609752218366</v>
+        <v>0.001476387071415508</v>
       </c>
       <c r="I4">
-        <v>0.0009273416491684117</v>
+        <v>0.0006634609559745819</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.2575625419186398</v>
+        <v>0.2366440765042324</v>
       </c>
       <c r="L4">
-        <v>0.08935386076185381</v>
+        <v>0.1355159176951695</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.05417802449423714</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.09026387119014245</v>
       </c>
       <c r="O4">
-        <v>0.5698368896844457</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.458958368181271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.5765257886601844</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.380463117843576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.87140869223785</v>
+        <v>1.876780575462561</v>
       </c>
       <c r="C5">
-        <v>0.5414140122965421</v>
+        <v>0.5555995671936103</v>
       </c>
       <c r="D5">
-        <v>0.113507036133413</v>
+        <v>0.1177242199851634</v>
       </c>
       <c r="E5">
-        <v>0.08275005286322568</v>
+        <v>0.08464087592042091</v>
       </c>
       <c r="F5">
-        <v>0.633240827563526</v>
+        <v>0.6094047131664624</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.002157640619270262</v>
+        <v>0.001775245300393746</v>
       </c>
       <c r="I5">
-        <v>0.001178232286196401</v>
+        <v>0.0008446452298782603</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.2595738942591481</v>
+        <v>0.2388919755878405</v>
       </c>
       <c r="L5">
-        <v>0.08777554604209215</v>
+        <v>0.1369955009508264</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.05499605848975975</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.0888073335679529</v>
       </c>
       <c r="O5">
-        <v>0.5471989975657152</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.446662630001967</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.5532902195169456</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.371118846832005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.858012866321104</v>
+        <v>1.86346210542672</v>
       </c>
       <c r="C6">
-        <v>0.5392819152955894</v>
+        <v>0.5530176635846829</v>
       </c>
       <c r="D6">
-        <v>0.1131028532736309</v>
+        <v>0.1172913174443835</v>
       </c>
       <c r="E6">
-        <v>0.08245365471411148</v>
+        <v>0.08435028099072639</v>
       </c>
       <c r="F6">
-        <v>0.6311813040986465</v>
+        <v>0.6075770102614158</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.002219385415946351</v>
+        <v>0.001829231683262322</v>
       </c>
       <c r="I6">
-        <v>0.001315393353927163</v>
+        <v>0.0009856523258315875</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.2595071506905224</v>
+        <v>0.238906837919437</v>
       </c>
       <c r="L6">
-        <v>0.08746823037153817</v>
+        <v>0.1370408644232555</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.05506879320446512</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.08852201189375819</v>
       </c>
       <c r="O6">
-        <v>0.5437410124777031</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.442294356287533</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.5497225488972504</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.367392663652666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.949128481977709</v>
+        <v>1.954082732685663</v>
       </c>
       <c r="C7">
-        <v>0.5650469997698053</v>
+        <v>0.5817427446911836</v>
       </c>
       <c r="D7">
-        <v>0.1168787633676516</v>
+        <v>0.1212376389537226</v>
       </c>
       <c r="E7">
-        <v>0.08453354183392392</v>
+        <v>0.08638713321107616</v>
       </c>
       <c r="F7">
-        <v>0.638497279964561</v>
+        <v>0.6136993768377508</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.001822517337739082</v>
+        <v>0.001483305785963229</v>
       </c>
       <c r="I7">
-        <v>0.001167207408746762</v>
+        <v>0.0009434916418840089</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.2564835601673838</v>
+        <v>0.2356928212112894</v>
       </c>
       <c r="L7">
-        <v>0.08921130102563524</v>
+        <v>0.1350029074182117</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.05397875817443687</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.09012807784879229</v>
       </c>
       <c r="O7">
-        <v>0.5703539518155125</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.45237071897796</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.5770053539398958</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.374361692401209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.350821652017714</v>
+        <v>2.353354315764363</v>
       </c>
       <c r="C8">
-        <v>0.6761580535047074</v>
+        <v>0.7064412128083859</v>
       </c>
       <c r="D8">
-        <v>0.1333472387922114</v>
+        <v>0.1385090436459393</v>
       </c>
       <c r="E8">
-        <v>0.09368312347980279</v>
+        <v>0.0953529226115819</v>
       </c>
       <c r="F8">
-        <v>0.674187333403971</v>
+        <v>0.6437093557415352</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0005690347831002196</v>
+        <v>0.0004153012430851977</v>
       </c>
       <c r="I8">
-        <v>0.00073516920109995</v>
+        <v>0.0008645284552626364</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>0.2449797318996829</v>
+        <v>0.2230802170546333</v>
       </c>
       <c r="L8">
-        <v>0.09692148710729853</v>
+        <v>0.1269684605228747</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.05052514029937694</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.09722174935204109</v>
       </c>
       <c r="O8">
-        <v>0.6871116723428941</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.506820293654243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.69679990976325</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.413793488441328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.137039529718209</v>
+        <v>3.133829144712763</v>
       </c>
       <c r="C9">
-        <v>0.8909204856974782</v>
+        <v>0.9496232998125151</v>
       </c>
       <c r="D9">
-        <v>0.1655239710184162</v>
+        <v>0.1724225185791255</v>
       </c>
       <c r="E9">
-        <v>0.1115877323127599</v>
+        <v>0.1129123285944225</v>
       </c>
       <c r="F9">
-        <v>0.753336015787518</v>
+        <v>0.7103728409493044</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0001144537441515325</v>
+        <v>0.0001654954538838904</v>
       </c>
       <c r="I9">
-        <v>0.001397742681644942</v>
+        <v>0.001849785044485408</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.2274060835460752</v>
+        <v>0.2024846722894367</v>
       </c>
       <c r="L9">
-        <v>0.1119586246353634</v>
+        <v>0.1135778682146338</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.04856972107259594</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1110066862309189</v>
       </c>
       <c r="O9">
-        <v>0.9153408841374713</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.640539327643239</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.931187067104247</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.513794327036948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.720746237650587</v>
+        <v>3.712836207220448</v>
       </c>
       <c r="C10">
-        <v>1.052103129525847</v>
+        <v>1.131121835567455</v>
       </c>
       <c r="D10">
-        <v>0.1855891677967492</v>
+        <v>0.1936128961024366</v>
       </c>
       <c r="E10">
-        <v>0.1197966315041405</v>
+        <v>0.1208471305202785</v>
       </c>
       <c r="F10">
-        <v>0.7997291434105307</v>
+        <v>0.7484478650599726</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.001298000134949184</v>
+        <v>0.001383307580923088</v>
       </c>
       <c r="I10">
-        <v>0.003310052720749468</v>
+        <v>0.003803906543582869</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.2126109124870936</v>
+        <v>0.18605381573777</v>
       </c>
       <c r="L10">
-        <v>0.1171221676012379</v>
+        <v>0.1036837001282844</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.04866577042327158</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1153877056655226</v>
       </c>
       <c r="O10">
-        <v>1.072065606380463</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.717247526127011</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.091986637736625</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.567987526958319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.048406458219972</v>
+        <v>4.040474861330551</v>
       </c>
       <c r="C11">
-        <v>1.124430450283455</v>
+        <v>1.198205029527344</v>
       </c>
       <c r="D11">
-        <v>0.161274873320707</v>
+        <v>0.1678545029022445</v>
       </c>
       <c r="E11">
-        <v>0.08627643343169922</v>
+        <v>0.08701520916786798</v>
       </c>
       <c r="F11">
-        <v>0.6974420138667128</v>
+        <v>0.6548688340403785</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.01988045039643538</v>
+        <v>0.01994726318906004</v>
       </c>
       <c r="I11">
-        <v>0.004556328737278292</v>
+        <v>0.005115640611697003</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.1775545905948874</v>
+        <v>0.1575773472449349</v>
       </c>
       <c r="L11">
-        <v>0.0827515076412233</v>
+        <v>0.09252092636241471</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.03988234544108771</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.08195117610157787</v>
       </c>
       <c r="O11">
-        <v>1.039221555146149</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.497509902890016</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.056749430127091</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.373538570950274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.205328707873264</v>
+        <v>4.198460564647121</v>
       </c>
       <c r="C12">
-        <v>1.145465727097076</v>
+        <v>1.21004972252814</v>
       </c>
       <c r="D12">
-        <v>0.1378817756014996</v>
+        <v>0.1431364460176496</v>
       </c>
       <c r="E12">
-        <v>0.06443335490455304</v>
+        <v>0.06499323403173385</v>
       </c>
       <c r="F12">
-        <v>0.6097237109797149</v>
+        <v>0.5753316369143633</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.05840851664331836</v>
+        <v>0.05846715181791495</v>
       </c>
       <c r="I12">
-        <v>0.004754025706900755</v>
+        <v>0.005299260432629183</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.1556719965565438</v>
+        <v>0.1406434466925575</v>
       </c>
       <c r="L12">
-        <v>0.07027878186021214</v>
+        <v>0.08676166056065071</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.03345889055294116</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.0702289383701229</v>
       </c>
       <c r="O12">
-        <v>0.9775027095029571</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.315181027503854</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.99228425803107</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.214622559708118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.237425317156124</v>
+        <v>4.232593460139412</v>
       </c>
       <c r="C13">
-        <v>1.133524236125254</v>
+        <v>1.185420916859243</v>
       </c>
       <c r="D13">
-        <v>0.1144447495402616</v>
+        <v>0.1184156783052615</v>
       </c>
       <c r="E13">
-        <v>0.0502984976953158</v>
+        <v>0.05077155802540645</v>
       </c>
       <c r="F13">
-        <v>0.5247112336171043</v>
+        <v>0.4986492549499033</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1138728730844036</v>
+        <v>0.113928979793954</v>
       </c>
       <c r="I13">
-        <v>0.004439906037532637</v>
+        <v>0.004991909818184759</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.1406923073657875</v>
+        <v>0.129809496998095</v>
       </c>
       <c r="L13">
-        <v>0.07344141037338758</v>
+        <v>0.08362238298067437</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.02815954637809881</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.0739993939060124</v>
       </c>
       <c r="O13">
-        <v>0.8917996723465436</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.140638267549392</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.9034077870414521</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.063865228055377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.203027895431376</v>
+        <v>4.200056260100098</v>
       </c>
       <c r="C14">
-        <v>1.111360185434364</v>
+        <v>1.152844549546046</v>
       </c>
       <c r="D14">
-        <v>0.09848590615219877</v>
+        <v>0.101616645589381</v>
       </c>
       <c r="E14">
-        <v>0.0450116810060962</v>
+        <v>0.04547034678692552</v>
       </c>
       <c r="F14">
-        <v>0.4671165972903069</v>
+        <v>0.4467506756000503</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1629861670217281</v>
+        <v>0.1630408733803819</v>
       </c>
       <c r="I14">
-        <v>0.004082899411984364</v>
+        <v>0.004660647338216251</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.1335663317743823</v>
+        <v>0.1250784420223727</v>
       </c>
       <c r="L14">
-        <v>0.08487373892790018</v>
+        <v>0.0824429535594795</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.02520387177745853</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.08573998569975672</v>
       </c>
       <c r="O14">
-        <v>0.8218825343549128</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.02281388888558</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.8311171473110335</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.9623392377170745</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.167270167616039</v>
+        <v>4.164950481444691</v>
       </c>
       <c r="C15">
-        <v>1.100431768616829</v>
+        <v>1.13868995719281</v>
       </c>
       <c r="D15">
-        <v>0.09446549566925455</v>
+        <v>0.09738870527057486</v>
       </c>
       <c r="E15">
-        <v>0.04429851019865388</v>
+        <v>0.04477034301263361</v>
       </c>
       <c r="F15">
-        <v>0.4525162071220947</v>
+        <v>0.4336581627236598</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1753965652314804</v>
+        <v>0.1754501875494157</v>
       </c>
       <c r="I15">
-        <v>0.004000385471352175</v>
+        <v>0.004608989026095855</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657407966</v>
       </c>
       <c r="K15">
-        <v>0.1327260339719851</v>
+        <v>0.124748040965347</v>
       </c>
       <c r="L15">
-        <v>0.08867279745850709</v>
+        <v>0.08243702389551566</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.0246480513391969</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.0896010898112678</v>
       </c>
       <c r="O15">
-        <v>0.8001426854847722</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.9929504040541701</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.8086956568491388</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.9367926278531087</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.906370180276554</v>
+        <v>3.905764153339987</v>
       </c>
       <c r="C16">
-        <v>1.035400837560587</v>
+        <v>1.067740838079885</v>
       </c>
       <c r="D16">
-        <v>0.09136923742992309</v>
+        <v>0.09417779058463083</v>
       </c>
       <c r="E16">
-        <v>0.04399265218201054</v>
+        <v>0.04460354178197296</v>
       </c>
       <c r="F16">
-        <v>0.4495255373632432</v>
+        <v>0.432021796449213</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1622072108283135</v>
+        <v>0.1622469187602888</v>
       </c>
       <c r="I16">
-        <v>0.003234430814247347</v>
+        <v>0.00388333622293846</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.1409487633753415</v>
+        <v>0.1325209799094162</v>
       </c>
       <c r="L16">
-        <v>0.08557127906674822</v>
+        <v>0.08521166031754257</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.02619751612915344</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.0865554526880068</v>
       </c>
       <c r="O16">
-        <v>0.7530372940459813</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.9922761162006282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.7606296162378001</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.9397168351759007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.725175624324208</v>
+        <v>3.724862618219618</v>
       </c>
       <c r="C17">
-        <v>0.9975920334827606</v>
+        <v>1.030912742582416</v>
       </c>
       <c r="D17">
-        <v>0.09721725213400845</v>
+        <v>0.1003468093598414</v>
       </c>
       <c r="E17">
-        <v>0.0457911462662226</v>
+        <v>0.04651237187711699</v>
       </c>
       <c r="F17">
-        <v>0.4771745268737462</v>
+        <v>0.4578908940333832</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1242259339810943</v>
+        <v>0.1242525781927242</v>
       </c>
       <c r="I17">
-        <v>0.002893383588849829</v>
+        <v>0.003555095222883331</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234516</v>
       </c>
       <c r="K17">
-        <v>0.1508754967059422</v>
+        <v>0.1409886198008987</v>
       </c>
       <c r="L17">
-        <v>0.07563738737940895</v>
+        <v>0.08830258600713847</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02871936573928924</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.07655422110002164</v>
       </c>
       <c r="O17">
-        <v>0.7536256704551505</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.053302141564927</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.7616970757783577</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.9953787804808769</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.592972469130416</v>
+        <v>3.591825141195102</v>
       </c>
       <c r="C18">
-        <v>0.9756019285897821</v>
+        <v>1.015825811159971</v>
       </c>
       <c r="D18">
-        <v>0.1122523014088372</v>
+        <v>0.1161843429336145</v>
       </c>
       <c r="E18">
-        <v>0.05363887475620022</v>
+        <v>0.05447215963099872</v>
       </c>
       <c r="F18">
-        <v>0.5384884599034905</v>
+        <v>0.5140897658192785</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07136859742032442</v>
+        <v>0.07139366605510844</v>
       </c>
       <c r="I18">
-        <v>0.002542041189423472</v>
+        <v>0.00315860170490545</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146309314</v>
       </c>
       <c r="K18">
-        <v>0.1653383104506272</v>
+        <v>0.1525462732276779</v>
       </c>
       <c r="L18">
-        <v>0.06708214965726</v>
+        <v>0.09270388121083428</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.03269636152541544</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.06772190280629964</v>
       </c>
       <c r="O18">
-        <v>0.7952813498646094</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.183586113984859</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.8052090208619447</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.110751100296127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.509427381083356</v>
+        <v>3.506684201629128</v>
       </c>
       <c r="C19">
-        <v>0.9747076045734673</v>
+        <v>1.025865896666545</v>
       </c>
       <c r="D19">
-        <v>0.1356783245381621</v>
+        <v>0.140853778966985</v>
       </c>
       <c r="E19">
-        <v>0.0718324500363785</v>
+        <v>0.07279228167232965</v>
       </c>
       <c r="F19">
-        <v>0.6239742828667261</v>
+        <v>0.5916772270742214</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02625812088007251</v>
+        <v>0.02629843729012293</v>
       </c>
       <c r="I19">
-        <v>0.002705179260830803</v>
+        <v>0.003347508165457036</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.0759263476844998</v>
       </c>
       <c r="K19">
-        <v>0.1835389325695349</v>
+        <v>0.1664807123814409</v>
       </c>
       <c r="L19">
-        <v>0.07265126867905725</v>
+        <v>0.09804707085639208</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.03783796375491733</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.07269646071756153</v>
       </c>
       <c r="O19">
-        <v>0.8699030064529865</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.35992719960305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.8827338875053314</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.264437396741613</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.5658943737306</v>
+        <v>3.559357259754904</v>
       </c>
       <c r="C20">
-        <v>1.020684946143831</v>
+        <v>1.094222784952649</v>
       </c>
       <c r="D20">
-        <v>0.181090443351394</v>
+        <v>0.1887827777361792</v>
       </c>
       <c r="E20">
-        <v>0.1174562648754538</v>
+        <v>0.1185759926059085</v>
       </c>
       <c r="F20">
-        <v>0.7798880420399712</v>
+        <v>0.7314186094477506</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.0008636350193977904</v>
+        <v>0.0009476666819714374</v>
       </c>
       <c r="I20">
-        <v>0.003428113442142333</v>
+        <v>0.004082778542555232</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>0.2129585265521001</v>
+        <v>0.1874341769895356</v>
       </c>
       <c r="L20">
-        <v>0.1151633172983111</v>
+        <v>0.1051664515148829</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.04736587507168544</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1136607394155362</v>
       </c>
       <c r="O20">
-        <v>1.032970051161605</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.675430806842598</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.051712060759883</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.53416460326136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.003339621223517</v>
+        <v>3.992504610538958</v>
       </c>
       <c r="C21">
-        <v>1.144312668946895</v>
+        <v>1.236386285327683</v>
       </c>
       <c r="D21">
-        <v>0.2027221885599886</v>
+        <v>0.2116715351465501</v>
       </c>
       <c r="E21">
-        <v>0.1315055691625986</v>
+        <v>0.1324517433834806</v>
       </c>
       <c r="F21">
-        <v>0.8406240334840049</v>
+        <v>0.7831702061759103</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.002148117189590293</v>
+        <v>0.002221285245781357</v>
       </c>
       <c r="I21">
-        <v>0.005274118507084147</v>
+        <v>0.005848938460406572</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752018</v>
       </c>
       <c r="K21">
-        <v>0.208401426298277</v>
+        <v>0.1800646357806031</v>
       </c>
       <c r="L21">
-        <v>0.1279969852891867</v>
+        <v>0.09967129982410405</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.05011319578322571</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1256338313857981</v>
       </c>
       <c r="O21">
-        <v>1.171940343043659</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.788262379379233</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.194589669142928</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.622223595125718</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.293784442360902</v>
+        <v>4.2800477007778</v>
       </c>
       <c r="C22">
-        <v>1.220683369133155</v>
+        <v>1.324221345847718</v>
       </c>
       <c r="D22">
-        <v>0.2144677808948359</v>
+        <v>0.2241439938712375</v>
       </c>
       <c r="E22">
-        <v>0.1381538883955074</v>
+        <v>0.1389740883881672</v>
       </c>
       <c r="F22">
-        <v>0.8767026326740393</v>
+        <v>0.813736955145913</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.003353834697339741</v>
+        <v>0.003391688035799811</v>
       </c>
       <c r="I22">
-        <v>0.006492863743799759</v>
+        <v>0.006897544360658259</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079829286</v>
       </c>
       <c r="K22">
-        <v>0.2054802813297947</v>
+        <v>0.175413572338833</v>
       </c>
       <c r="L22">
-        <v>0.1336289796482859</v>
+        <v>0.09612936059644817</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.05243261434646662</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1307665620220462</v>
       </c>
       <c r="O22">
-        <v>1.255746745885943</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.857782132699867</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.280736060981795</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.676396560071794</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.139461882725925</v>
+        <v>4.127263587363473</v>
       </c>
       <c r="C23">
-        <v>1.17563023552367</v>
+        <v>1.273019252897825</v>
       </c>
       <c r="D23">
-        <v>0.2078215827746561</v>
+        <v>0.2171165131072144</v>
       </c>
       <c r="E23">
-        <v>0.1345898418672355</v>
+        <v>0.1354779785270779</v>
       </c>
       <c r="F23">
-        <v>0.8599374259665495</v>
+        <v>0.7997178460537384</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.002682810730980312</v>
+        <v>0.002741948863940635</v>
       </c>
       <c r="I23">
-        <v>0.00553950791633806</v>
+        <v>0.005978518908110075</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787805219</v>
       </c>
       <c r="K23">
-        <v>0.2082180263340945</v>
+        <v>0.1788601160623315</v>
       </c>
       <c r="L23">
-        <v>0.1307626032236442</v>
+        <v>0.09832386950991179</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.05157986990965568</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1281590140533311</v>
       </c>
       <c r="O23">
-        <v>1.209993935353637</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.827864145639296</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.233768521752694</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.654002667215138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.554286396108466</v>
+        <v>3.547574600875237</v>
       </c>
       <c r="C24">
-        <v>1.012868021598109</v>
+        <v>1.087419981248104</v>
       </c>
       <c r="D24">
-        <v>0.1834048139381679</v>
+        <v>0.1912737708320265</v>
       </c>
       <c r="E24">
-        <v>0.1211659162280867</v>
+        <v>0.1223082729253875</v>
       </c>
       <c r="F24">
-        <v>0.794254165792097</v>
+        <v>0.7444665414124216</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.000790592827199621</v>
+        <v>0.0008768618180050591</v>
       </c>
       <c r="I24">
-        <v>0.002974338343538996</v>
+        <v>0.00353135998514098</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>0.2176390981090393</v>
+        <v>0.1911578574470436</v>
       </c>
       <c r="L24">
-        <v>0.1196823404280671</v>
+        <v>0.1065668555512218</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.04875794616962636</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1180573267804625</v>
       </c>
       <c r="O24">
-        <v>1.038840774360622</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.708359068447379</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.05795714908092</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.56317489017988</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.923457445319457</v>
+        <v>2.92195709545291</v>
       </c>
       <c r="C25">
-        <v>0.8388084261293045</v>
+        <v>0.8896085739885962</v>
       </c>
       <c r="D25">
-        <v>0.1573235643263473</v>
+        <v>0.1637227080082511</v>
       </c>
       <c r="E25">
-        <v>0.1067582490233718</v>
+        <v>0.1081740261855018</v>
       </c>
       <c r="F25">
-        <v>0.7273349438977306</v>
+        <v>0.6881610736704076</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.380246628463922E-06</v>
+        <v>1.647259370329834E-05</v>
       </c>
       <c r="I25">
-        <v>0.001395902738048349</v>
+        <v>0.001877499476342415</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.2298806088657557</v>
+        <v>0.2061364114529631</v>
       </c>
       <c r="L25">
-        <v>0.1077014419433659</v>
+        <v>0.1163452209870623</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.04806600513073001</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1071037588602834</v>
       </c>
       <c r="O25">
-        <v>0.8549885156831678</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.5910373983547</v>
+        <v>0.8691044965443524</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.474767136199972</v>
       </c>
     </row>
   </sheetData>
